--- a/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.423844531943871</v>
+        <v>2.423844531943985</v>
       </c>
       <c r="C2">
-        <v>0.5666250137568625</v>
+        <v>0.5666250137569477</v>
       </c>
       <c r="D2">
-        <v>0.0326444942760773</v>
+        <v>0.03264449427625848</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6863625156736504</v>
+        <v>0.6863625156736219</v>
       </c>
       <c r="G2">
         <v>0.4715494000661096</v>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.099184213939509</v>
+        <v>2.099184213939623</v>
       </c>
       <c r="C3">
-        <v>0.4942108365741262</v>
+        <v>0.4942108365738989</v>
       </c>
       <c r="D3">
         <v>0.03133046766464176</v>
@@ -462,10 +462,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6337488462777401</v>
+        <v>0.6337488462777472</v>
       </c>
       <c r="G3">
-        <v>0.4442881632045257</v>
+        <v>0.4442881632045612</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5800768531351181</v>
+        <v>0.5800768531351679</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.901281234024054</v>
+        <v>1.901281234023969</v>
       </c>
       <c r="C4">
-        <v>0.4499579928148023</v>
+        <v>0.4499579928146318</v>
       </c>
       <c r="D4">
-        <v>0.03055518891532572</v>
+        <v>0.03055518891540032</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6041418632283424</v>
+        <v>0.6041418632283637</v>
       </c>
       <c r="G4">
-        <v>0.4297250676302724</v>
+        <v>0.4297250676302582</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5256454760551748</v>
+        <v>0.5256454760551676</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.820930722065697</v>
+        <v>1.820930722065469</v>
       </c>
       <c r="C5">
-        <v>0.4319638149137006</v>
+        <v>0.4319638149135869</v>
       </c>
       <c r="D5">
-        <v>0.03024651277224777</v>
+        <v>0.03024651277202395</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5927014031694355</v>
+        <v>0.5927014031694213</v>
       </c>
       <c r="G5">
-        <v>0.4242957046531544</v>
+        <v>0.4242957046531259</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5035359463376494</v>
+        <v>0.5035359463376281</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.807604671865221</v>
+        <v>1.807604671865164</v>
       </c>
       <c r="C6">
         <v>0.4289778888780802</v>
       </c>
       <c r="D6">
-        <v>0.03019567728878059</v>
+        <v>0.03019567728901151</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0.5908379457793913</v>
       </c>
       <c r="G6">
-        <v>0.4234235092427099</v>
+        <v>0.4234235092427241</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4998685165738479</v>
+        <v>0.4998685165738834</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.900196481118627</v>
+        <v>1.900196481118769</v>
       </c>
       <c r="C7">
         <v>0.4497151753562889</v>
       </c>
       <c r="D7">
-        <v>0.03055099745771628</v>
+        <v>0.03055099745779444</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6039851125318734</v>
+        <v>0.6039851125318521</v>
       </c>
       <c r="G7">
-        <v>0.4296498528874011</v>
+        <v>0.4296498528873798</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.311561747702626</v>
+        <v>2.31156174770274</v>
       </c>
       <c r="C8">
         <v>0.5416045631142481</v>
       </c>
       <c r="D8">
-        <v>0.03218444164536649</v>
+        <v>0.03218444164513556</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0.6676277605983501</v>
       </c>
       <c r="G8">
-        <v>0.4616721183828361</v>
+        <v>0.4616721183828432</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6384545093775529</v>
+        <v>0.6384545093775884</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.132935046914781</v>
+        <v>3.132935046914838</v>
       </c>
       <c r="C9">
         <v>0.7241419539368223</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8164769628061208</v>
+        <v>0.816476962806135</v>
       </c>
       <c r="G9">
-        <v>0.5437789382205054</v>
+        <v>0.5437789382205409</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8639560281185368</v>
+        <v>0.8639560281185652</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.750406097922337</v>
+        <v>3.750406097922507</v>
       </c>
       <c r="C10">
-        <v>0.8607372919537397</v>
+        <v>0.8607372919539671</v>
       </c>
       <c r="D10">
-        <v>0.03846547308836534</v>
+        <v>0.03846547308835824</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.033250804215541</v>
+        <v>1.033250804215527</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.03562394879981</v>
+        <v>4.035623948799923</v>
       </c>
       <c r="C11">
-        <v>0.9236856850407378</v>
+        <v>0.9236856850407946</v>
       </c>
       <c r="D11">
-        <v>0.03980074828086089</v>
+        <v>0.03980074828067615</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.00785222324069</v>
+        <v>1.007852223240675</v>
       </c>
       <c r="G11">
-        <v>0.6572602634926952</v>
+        <v>0.657260263492681</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.111397262842544</v>
+        <v>1.111397262842516</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.14436956172085</v>
+        <v>4.144369561721135</v>
       </c>
       <c r="C12">
-        <v>0.9476642981518353</v>
+        <v>0.9476642981520911</v>
       </c>
       <c r="D12">
         <v>0.04031716012305964</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.14118443645782</v>
+        <v>1.141184436457834</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.120914330792914</v>
+        <v>4.120914330792857</v>
       </c>
       <c r="C13">
-        <v>0.9424933574560725</v>
+        <v>0.9424933574559589</v>
       </c>
       <c r="D13">
-        <v>0.04020543723817127</v>
+        <v>0.0402054372382139</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>1.027275548621546</v>
       </c>
       <c r="G13">
-        <v>0.6691070510756063</v>
+        <v>0.6691070510756205</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.134760025933531</v>
+        <v>1.134760025933545</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.044554968399098</v>
+        <v>4.044554968399041</v>
       </c>
       <c r="C14">
-        <v>0.9256554327470212</v>
+        <v>0.925655432746936</v>
       </c>
       <c r="D14">
-        <v>0.03984300887967862</v>
+        <v>0.03984300887975678</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.009875720553822</v>
+        <v>1.009875720553808</v>
       </c>
       <c r="G14">
         <v>0.658492065225694</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.997882712729677</v>
+        <v>3.99788271272979</v>
       </c>
       <c r="C15">
-        <v>0.9153609230179711</v>
+        <v>0.9153609230179143</v>
       </c>
       <c r="D15">
-        <v>0.03962246034861749</v>
+        <v>0.03962246034854644</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9993281583353451</v>
+        <v>0.9993281583353735</v>
       </c>
       <c r="G15">
-        <v>0.6520774606901085</v>
+        <v>0.6520774606901156</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.101058338257886</v>
+        <v>1.101058338257872</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.731863268902998</v>
+        <v>3.731863268902941</v>
       </c>
       <c r="C16">
-        <v>0.8566418370384099</v>
+        <v>0.8566418370385236</v>
       </c>
       <c r="D16">
-        <v>0.03837963372225772</v>
+        <v>0.03837963372233588</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0.9405002704411345</v>
       </c>
       <c r="G16">
-        <v>0.6165984864368426</v>
+        <v>0.6165984864368355</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.028169196216396</v>
+        <v>1.028169196216368</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.569856872437072</v>
+        <v>3.569856872437015</v>
       </c>
       <c r="C17">
-        <v>0.8208439792132083</v>
+        <v>0.8208439792131799</v>
       </c>
       <c r="D17">
-        <v>0.03763477570927165</v>
+        <v>0.0376347757094635</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9837659057778581</v>
+        <v>0.9837659057778154</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.477074604134032</v>
+        <v>3.477074604134089</v>
       </c>
       <c r="C18">
-        <v>0.800328635517161</v>
+        <v>0.8003286355171326</v>
       </c>
       <c r="D18">
-        <v>0.03721235853430471</v>
+        <v>0.03721235853426919</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0.8862725407770569</v>
       </c>
       <c r="G18">
-        <v>0.5843917548898574</v>
+        <v>0.5843917548898503</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>3.445725368131093</v>
       </c>
       <c r="C19">
-        <v>0.7933945996969385</v>
+        <v>0.7933945996971374</v>
       </c>
       <c r="D19">
-        <v>0.03707032589635162</v>
+        <v>0.03707032589625214</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.879747662383437</v>
+        <v>0.8797476623834228</v>
       </c>
       <c r="G19">
-        <v>0.5805524446175809</v>
+        <v>0.580552444617588</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9497360734833791</v>
+        <v>0.9497360734833649</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.587060570154961</v>
+        <v>3.587060570154904</v>
       </c>
       <c r="C20">
-        <v>0.8246468265029989</v>
+        <v>0.8246468265028</v>
       </c>
       <c r="D20">
-        <v>0.03771343572600472</v>
+        <v>0.03771343572607577</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9094218296361021</v>
+        <v>0.9094218296360879</v>
       </c>
       <c r="G20">
-        <v>0.5980771821396544</v>
+        <v>0.5980771821396473</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9884816691932343</v>
+        <v>0.9884816691931917</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,10 +1137,10 @@
         <v>4.066962483214752</v>
       </c>
       <c r="C21">
-        <v>0.9305970884430508</v>
+        <v>0.9305970884431929</v>
       </c>
       <c r="D21">
-        <v>0.03994915796268117</v>
+        <v>0.03994915796251064</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>1.014963293629251</v>
       </c>
       <c r="G21">
-        <v>0.661591589552998</v>
+        <v>0.6615915895529909</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.119981824293845</v>
+        <v>1.119981824293831</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.384982709696942</v>
+        <v>4.384982709696828</v>
       </c>
       <c r="C22">
-        <v>1.000679754195517</v>
+        <v>1.000679754195602</v>
       </c>
       <c r="D22">
-        <v>0.04147394539899807</v>
+        <v>0.04147394539900517</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.088796954264282</v>
+        <v>1.088796954264268</v>
       </c>
       <c r="G22">
-        <v>0.7069487476421301</v>
+        <v>0.7069487476421372</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.207077726007938</v>
+        <v>1.207077726007896</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.214806477810214</v>
+        <v>4.214806477810328</v>
       </c>
       <c r="C23">
-        <v>0.9631896336757393</v>
+        <v>0.9631896336757677</v>
       </c>
       <c r="D23">
-        <v>0.04065378350345128</v>
+        <v>0.04065378350315996</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.160476024222717</v>
+        <v>1.16047602422276</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.57928167401667</v>
+        <v>3.579281674016613</v>
       </c>
       <c r="C24">
-        <v>0.8229273576237972</v>
+        <v>0.8229273576239962</v>
       </c>
       <c r="D24">
-        <v>0.03767785553737468</v>
+        <v>0.03767785553731073</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9863493851671308</v>
+        <v>0.9863493851671166</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.908667734213054</v>
+        <v>2.908667734212997</v>
       </c>
       <c r="C25">
-        <v>0.6744074251827499</v>
+        <v>0.6744074251828351</v>
       </c>
       <c r="D25">
-        <v>0.03469319989356023</v>
+        <v>0.03469319989362418</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.802423347522037</v>
+        <v>0.8024233475220512</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.423844531943985</v>
+        <v>2.423844531943871</v>
       </c>
       <c r="C2">
-        <v>0.5666250137569477</v>
+        <v>0.5666250137568625</v>
       </c>
       <c r="D2">
-        <v>0.03264449427625848</v>
+        <v>0.0326444942760773</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6863625156736219</v>
+        <v>0.6863625156736504</v>
       </c>
       <c r="G2">
         <v>0.4715494000661096</v>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.099184213939623</v>
+        <v>2.099184213939509</v>
       </c>
       <c r="C3">
-        <v>0.4942108365738989</v>
+        <v>0.4942108365741262</v>
       </c>
       <c r="D3">
         <v>0.03133046766464176</v>
@@ -462,10 +462,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6337488462777472</v>
+        <v>0.6337488462777401</v>
       </c>
       <c r="G3">
-        <v>0.4442881632045612</v>
+        <v>0.4442881632045257</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5800768531351679</v>
+        <v>0.5800768531351181</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.901281234023969</v>
+        <v>1.901281234024054</v>
       </c>
       <c r="C4">
-        <v>0.4499579928146318</v>
+        <v>0.4499579928148023</v>
       </c>
       <c r="D4">
-        <v>0.03055518891540032</v>
+        <v>0.03055518891532572</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6041418632283637</v>
+        <v>0.6041418632283424</v>
       </c>
       <c r="G4">
-        <v>0.4297250676302582</v>
+        <v>0.4297250676302724</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5256454760551676</v>
+        <v>0.5256454760551748</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.820930722065469</v>
+        <v>1.820930722065697</v>
       </c>
       <c r="C5">
-        <v>0.4319638149135869</v>
+        <v>0.4319638149137006</v>
       </c>
       <c r="D5">
-        <v>0.03024651277202395</v>
+        <v>0.03024651277224777</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5927014031694213</v>
+        <v>0.5927014031694355</v>
       </c>
       <c r="G5">
-        <v>0.4242957046531259</v>
+        <v>0.4242957046531544</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5035359463376281</v>
+        <v>0.5035359463376494</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.807604671865164</v>
+        <v>1.807604671865221</v>
       </c>
       <c r="C6">
         <v>0.4289778888780802</v>
       </c>
       <c r="D6">
-        <v>0.03019567728901151</v>
+        <v>0.03019567728878059</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0.5908379457793913</v>
       </c>
       <c r="G6">
-        <v>0.4234235092427241</v>
+        <v>0.4234235092427099</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4998685165738834</v>
+        <v>0.4998685165738479</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.900196481118769</v>
+        <v>1.900196481118627</v>
       </c>
       <c r="C7">
         <v>0.4497151753562889</v>
       </c>
       <c r="D7">
-        <v>0.03055099745779444</v>
+        <v>0.03055099745771628</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6039851125318521</v>
+        <v>0.6039851125318734</v>
       </c>
       <c r="G7">
-        <v>0.4296498528873798</v>
+        <v>0.4296498528874011</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.31156174770274</v>
+        <v>2.311561747702626</v>
       </c>
       <c r="C8">
         <v>0.5416045631142481</v>
       </c>
       <c r="D8">
-        <v>0.03218444164513556</v>
+        <v>0.03218444164536649</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0.6676277605983501</v>
       </c>
       <c r="G8">
-        <v>0.4616721183828432</v>
+        <v>0.4616721183828361</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6384545093775884</v>
+        <v>0.6384545093775529</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.132935046914838</v>
+        <v>3.132935046914781</v>
       </c>
       <c r="C9">
         <v>0.7241419539368223</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.816476962806135</v>
+        <v>0.8164769628061208</v>
       </c>
       <c r="G9">
-        <v>0.5437789382205409</v>
+        <v>0.5437789382205054</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8639560281185652</v>
+        <v>0.8639560281185368</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.750406097922507</v>
+        <v>3.750406097922337</v>
       </c>
       <c r="C10">
-        <v>0.8607372919539671</v>
+        <v>0.8607372919537397</v>
       </c>
       <c r="D10">
-        <v>0.03846547308835824</v>
+        <v>0.03846547308836534</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.033250804215527</v>
+        <v>1.033250804215541</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.035623948799923</v>
+        <v>4.03562394879981</v>
       </c>
       <c r="C11">
-        <v>0.9236856850407946</v>
+        <v>0.9236856850407378</v>
       </c>
       <c r="D11">
-        <v>0.03980074828067615</v>
+        <v>0.03980074828086089</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.007852223240675</v>
+        <v>1.00785222324069</v>
       </c>
       <c r="G11">
-        <v>0.657260263492681</v>
+        <v>0.6572602634926952</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.111397262842516</v>
+        <v>1.111397262842544</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.144369561721135</v>
+        <v>4.14436956172085</v>
       </c>
       <c r="C12">
-        <v>0.9476642981520911</v>
+        <v>0.9476642981518353</v>
       </c>
       <c r="D12">
         <v>0.04031716012305964</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.141184436457834</v>
+        <v>1.14118443645782</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.120914330792857</v>
+        <v>4.120914330792914</v>
       </c>
       <c r="C13">
-        <v>0.9424933574559589</v>
+        <v>0.9424933574560725</v>
       </c>
       <c r="D13">
-        <v>0.0402054372382139</v>
+        <v>0.04020543723817127</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>1.027275548621546</v>
       </c>
       <c r="G13">
-        <v>0.6691070510756205</v>
+        <v>0.6691070510756063</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.134760025933545</v>
+        <v>1.134760025933531</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.044554968399041</v>
+        <v>4.044554968399098</v>
       </c>
       <c r="C14">
-        <v>0.925655432746936</v>
+        <v>0.9256554327470212</v>
       </c>
       <c r="D14">
-        <v>0.03984300887975678</v>
+        <v>0.03984300887967862</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.009875720553808</v>
+        <v>1.009875720553822</v>
       </c>
       <c r="G14">
         <v>0.658492065225694</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.99788271272979</v>
+        <v>3.997882712729677</v>
       </c>
       <c r="C15">
-        <v>0.9153609230179143</v>
+        <v>0.9153609230179711</v>
       </c>
       <c r="D15">
-        <v>0.03962246034854644</v>
+        <v>0.03962246034861749</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9993281583353735</v>
+        <v>0.9993281583353451</v>
       </c>
       <c r="G15">
-        <v>0.6520774606901156</v>
+        <v>0.6520774606901085</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.101058338257872</v>
+        <v>1.101058338257886</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.731863268902941</v>
+        <v>3.731863268902998</v>
       </c>
       <c r="C16">
-        <v>0.8566418370385236</v>
+        <v>0.8566418370384099</v>
       </c>
       <c r="D16">
-        <v>0.03837963372233588</v>
+        <v>0.03837963372225772</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0.9405002704411345</v>
       </c>
       <c r="G16">
-        <v>0.6165984864368355</v>
+        <v>0.6165984864368426</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.028169196216368</v>
+        <v>1.028169196216396</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.569856872437015</v>
+        <v>3.569856872437072</v>
       </c>
       <c r="C17">
-        <v>0.8208439792131799</v>
+        <v>0.8208439792132083</v>
       </c>
       <c r="D17">
-        <v>0.0376347757094635</v>
+        <v>0.03763477570927165</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9837659057778154</v>
+        <v>0.9837659057778581</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.477074604134089</v>
+        <v>3.477074604134032</v>
       </c>
       <c r="C18">
-        <v>0.8003286355171326</v>
+        <v>0.800328635517161</v>
       </c>
       <c r="D18">
-        <v>0.03721235853426919</v>
+        <v>0.03721235853430471</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0.8862725407770569</v>
       </c>
       <c r="G18">
-        <v>0.5843917548898503</v>
+        <v>0.5843917548898574</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>3.445725368131093</v>
       </c>
       <c r="C19">
-        <v>0.7933945996971374</v>
+        <v>0.7933945996969385</v>
       </c>
       <c r="D19">
-        <v>0.03707032589625214</v>
+        <v>0.03707032589635162</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8797476623834228</v>
+        <v>0.879747662383437</v>
       </c>
       <c r="G19">
-        <v>0.580552444617588</v>
+        <v>0.5805524446175809</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9497360734833649</v>
+        <v>0.9497360734833791</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.587060570154904</v>
+        <v>3.587060570154961</v>
       </c>
       <c r="C20">
-        <v>0.8246468265028</v>
+        <v>0.8246468265029989</v>
       </c>
       <c r="D20">
-        <v>0.03771343572607577</v>
+        <v>0.03771343572600472</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9094218296360879</v>
+        <v>0.9094218296361021</v>
       </c>
       <c r="G20">
-        <v>0.5980771821396473</v>
+        <v>0.5980771821396544</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9884816691931917</v>
+        <v>0.9884816691932343</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,10 +1137,10 @@
         <v>4.066962483214752</v>
       </c>
       <c r="C21">
-        <v>0.9305970884431929</v>
+        <v>0.9305970884430508</v>
       </c>
       <c r="D21">
-        <v>0.03994915796251064</v>
+        <v>0.03994915796268117</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>1.014963293629251</v>
       </c>
       <c r="G21">
-        <v>0.6615915895529909</v>
+        <v>0.661591589552998</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.119981824293831</v>
+        <v>1.119981824293845</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.384982709696828</v>
+        <v>4.384982709696942</v>
       </c>
       <c r="C22">
-        <v>1.000679754195602</v>
+        <v>1.000679754195517</v>
       </c>
       <c r="D22">
-        <v>0.04147394539900517</v>
+        <v>0.04147394539899807</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.088796954264268</v>
+        <v>1.088796954264282</v>
       </c>
       <c r="G22">
-        <v>0.7069487476421372</v>
+        <v>0.7069487476421301</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.207077726007896</v>
+        <v>1.207077726007938</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.214806477810328</v>
+        <v>4.214806477810214</v>
       </c>
       <c r="C23">
-        <v>0.9631896336757677</v>
+        <v>0.9631896336757393</v>
       </c>
       <c r="D23">
-        <v>0.04065378350315996</v>
+        <v>0.04065378350345128</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.16047602422276</v>
+        <v>1.160476024222717</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.579281674016613</v>
+        <v>3.57928167401667</v>
       </c>
       <c r="C24">
-        <v>0.8229273576239962</v>
+        <v>0.8229273576237972</v>
       </c>
       <c r="D24">
-        <v>0.03767785553731073</v>
+        <v>0.03767785553737468</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9863493851671166</v>
+        <v>0.9863493851671308</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.908667734212997</v>
+        <v>2.908667734213054</v>
       </c>
       <c r="C25">
-        <v>0.6744074251828351</v>
+        <v>0.6744074251827499</v>
       </c>
       <c r="D25">
-        <v>0.03469319989362418</v>
+        <v>0.03469319989356023</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8024233475220512</v>
+        <v>0.802423347522037</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.423844531943871</v>
+        <v>2.423840297553795</v>
       </c>
       <c r="C2">
-        <v>0.5666250137568625</v>
+        <v>0.5666229125650375</v>
       </c>
       <c r="D2">
-        <v>0.0326444942760773</v>
+        <v>0.03271812080463832</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6863625156736504</v>
+        <v>0.6851213559222344</v>
       </c>
       <c r="G2">
-        <v>0.4715494000661096</v>
+        <v>0.1406547771923812</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.3342188780515087</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6693052499511509</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6693037993765074</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.099184213939509</v>
+        <v>2.099199026349993</v>
       </c>
       <c r="C3">
-        <v>0.4942108365741262</v>
+        <v>0.4942187769720476</v>
       </c>
       <c r="D3">
-        <v>0.03133046766464176</v>
+        <v>0.03139175936863836</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6337488462777401</v>
+        <v>0.6326238854117037</v>
       </c>
       <c r="G3">
-        <v>0.4442881632045257</v>
+        <v>0.1290419349853806</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3187107502469075</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5800768531351181</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5800820668677815</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.901281234024054</v>
+        <v>1.901305107496768</v>
       </c>
       <c r="C4">
-        <v>0.4499579928148023</v>
+        <v>0.4499715399358308</v>
       </c>
       <c r="D4">
-        <v>0.03055518891532572</v>
+        <v>0.03060874595602314</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6041418632283424</v>
+        <v>0.6030858562599803</v>
       </c>
       <c r="G4">
-        <v>0.4297250676302724</v>
+        <v>0.1225980312643955</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3106743434420736</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5256454760551748</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5256540558864558</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.820930722065697</v>
+        <v>1.820957703768414</v>
       </c>
       <c r="C5">
-        <v>0.4319638149137006</v>
+        <v>0.4319795264416371</v>
       </c>
       <c r="D5">
-        <v>0.03024651277224777</v>
+        <v>0.03029687852772511</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5927014031694355</v>
+        <v>0.5916729690014293</v>
       </c>
       <c r="G5">
-        <v>0.4242957046531544</v>
+        <v>0.1201303840371963</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3077456235279996</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5035359463376494</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5035457376254939</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.807604671865221</v>
+        <v>1.807632136548023</v>
       </c>
       <c r="C6">
-        <v>0.4289778888780802</v>
+        <v>0.4289939530885931</v>
       </c>
       <c r="D6">
-        <v>0.03019567728878059</v>
+        <v>0.03024551078936</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5908379457793913</v>
+        <v>0.5898140603225883</v>
       </c>
       <c r="G6">
-        <v>0.4234235092427099</v>
+        <v>0.1197297940300288</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3072794551450428</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4998685165738479</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4998784999564236</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.900196481118627</v>
+        <v>1.900220398777947</v>
       </c>
       <c r="C7">
-        <v>0.4497151753562889</v>
+        <v>0.4497287521289479</v>
       </c>
       <c r="D7">
-        <v>0.03055099745771628</v>
+        <v>0.03060451161786304</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6039851125318734</v>
+        <v>0.6029294794572948</v>
       </c>
       <c r="G7">
-        <v>0.4296498528874011</v>
+        <v>0.1225641289724706</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3106334788536813</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5253470312160644</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5253556280064089</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.311561747702626</v>
+        <v>2.31156467659531</v>
       </c>
       <c r="C8">
-        <v>0.5416045631142481</v>
+        <v>0.5416060529767606</v>
       </c>
       <c r="D8">
-        <v>0.03218444164536649</v>
+        <v>0.03225384926628294</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6676277605983501</v>
+        <v>0.6664272103764048</v>
       </c>
       <c r="G8">
-        <v>0.4616721183828361</v>
+        <v>0.1364992664566316</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.328546227090321</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6384545093775529</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6384555213558727</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.132935046914781</v>
+        <v>3.132871976324282</v>
       </c>
       <c r="C9">
-        <v>0.7241419539368223</v>
+        <v>0.7241142904338176</v>
       </c>
       <c r="D9">
-        <v>0.03567273223833212</v>
+        <v>0.03577197282875488</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8164769628061208</v>
+        <v>0.8149694326380086</v>
       </c>
       <c r="G9">
-        <v>0.5437789382205054</v>
+        <v>0.1699744412774322</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3768044151328311</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8639560281185368</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8639352836257927</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.750406097922337</v>
+        <v>3.750273139120452</v>
       </c>
       <c r="C10">
-        <v>0.8607372919537397</v>
+        <v>0.8606832759728036</v>
       </c>
       <c r="D10">
-        <v>0.03846547308836534</v>
+        <v>0.03858573045583569</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9445286757491118</v>
+        <v>0.9427756459576528</v>
       </c>
       <c r="G10">
-        <v>0.6190110088042715</v>
+        <v>0.1993902971442836</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.4223192136081124</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.033250804215541</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.033208097980406</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.03562394879981</v>
+        <v>4.035452894979755</v>
       </c>
       <c r="C11">
-        <v>0.9236856850407378</v>
+        <v>0.9236181843409383</v>
       </c>
       <c r="D11">
-        <v>0.03980074828086089</v>
+        <v>0.03993034720458866</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.00785222324069</v>
+        <v>1.005981573062357</v>
       </c>
       <c r="G11">
-        <v>0.6572602634926952</v>
+        <v>0.2140886709348777</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.4457250716280825</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.111397262842544</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.111342796929605</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.14436956172085</v>
+        <v>4.144183012372991</v>
       </c>
       <c r="C12">
-        <v>0.9476642981518353</v>
+        <v>0.9475914339510041</v>
       </c>
       <c r="D12">
-        <v>0.04031716012305964</v>
+        <v>0.0404502624916816</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.032655704821508</v>
+        <v>1.030739502847723</v>
       </c>
       <c r="G12">
-        <v>0.6723974209971928</v>
+        <v>0.2198693384092749</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.4550253115875407</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.14118443645782</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.141125216530128</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.120914330792914</v>
+        <v>4.120731169132966</v>
       </c>
       <c r="C13">
-        <v>0.9424933574560725</v>
+        <v>0.9424216605518723</v>
       </c>
       <c r="D13">
-        <v>0.04020543723817127</v>
+        <v>0.04033778663365695</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.027275548621546</v>
+        <v>1.025369204785918</v>
       </c>
       <c r="G13">
-        <v>0.6691070510756063</v>
+        <v>0.2186143845666422</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.453002072666429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.134760025933531</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.134701844065532</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.044554968399098</v>
+        <v>4.044382662217231</v>
       </c>
       <c r="C14">
-        <v>0.9256554327470212</v>
+        <v>0.9255874962042867</v>
       </c>
       <c r="D14">
-        <v>0.03984300887967862</v>
+        <v>0.03997289673101534</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.009875720553822</v>
+        <v>1.008001344058414</v>
       </c>
       <c r="G14">
-        <v>0.658492065225694</v>
+        <v>0.2145597914198234</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.4464811530841288</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.113843772144989</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.113788921437816</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.997882712729677</v>
+        <v>3.997716911252837</v>
       </c>
       <c r="C15">
-        <v>0.9153609230179711</v>
+        <v>0.9152952549688393</v>
       </c>
       <c r="D15">
-        <v>0.03962246034861749</v>
+        <v>0.03975083592408879</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9993281583353451</v>
+        <v>0.9974732259656918</v>
       </c>
       <c r="G15">
-        <v>0.6520774606901085</v>
+        <v>0.2121049986012267</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.4425453399163715</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.101058338257886</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.101005487300782</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.731863268902998</v>
+        <v>3.731732659450415</v>
       </c>
       <c r="C16">
-        <v>0.8566418370384099</v>
+        <v>0.8565886687540285</v>
       </c>
       <c r="D16">
-        <v>0.03837963372225772</v>
+        <v>0.0384992759846341</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9405002704411345</v>
+        <v>0.938754794951592</v>
       </c>
       <c r="G16">
-        <v>0.6165984864368426</v>
+        <v>0.1984583264436139</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.4208479642539018</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.028169196216396</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.028127219085931</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.569856872437072</v>
+        <v>3.569746129044916</v>
       </c>
       <c r="C17">
-        <v>0.8208439792132083</v>
+        <v>0.8207980678372451</v>
       </c>
       <c r="D17">
-        <v>0.03763477570927165</v>
+        <v>0.03774900260440717</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9057746445554926</v>
+        <v>0.9040946908624363</v>
       </c>
       <c r="G17">
-        <v>0.5959145651083446</v>
+        <v>0.1904409977869364</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.4082619879812768</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9837659057778581</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9837301152992808</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.477074604134032</v>
+        <v>3.476974705059376</v>
       </c>
       <c r="C18">
-        <v>0.800328635517161</v>
+        <v>0.8002867600757781</v>
       </c>
       <c r="D18">
-        <v>0.03721235853430471</v>
+        <v>0.03732345020390682</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8862725407770569</v>
+        <v>0.8846297249263699</v>
       </c>
       <c r="G18">
-        <v>0.5843917548898574</v>
+        <v>0.1859519269477445</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.4012738859451375</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9583308854793557</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9582984900331155</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.445725368131093</v>
+        <v>3.445629045371447</v>
       </c>
       <c r="C19">
-        <v>0.7933945996969385</v>
+        <v>0.7933540682222429</v>
       </c>
       <c r="D19">
-        <v>0.03707032589635162</v>
+        <v>0.0371803525896226</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.879747662383437</v>
+        <v>0.8781173309715768</v>
       </c>
       <c r="G19">
-        <v>0.5805524446175809</v>
+        <v>0.1844522802697881</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3989495543606196</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.9497360734833791</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.949704800785085</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.587060570154961</v>
+        <v>3.586947773340967</v>
       </c>
       <c r="C20">
-        <v>0.8246468265029989</v>
+        <v>0.8246001571878026</v>
       </c>
       <c r="D20">
-        <v>0.03771343572600472</v>
+        <v>0.03782824122946238</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9094218296361021</v>
+        <v>0.9077349588752952</v>
       </c>
       <c r="G20">
-        <v>0.5980771821396544</v>
+        <v>0.1912816255058232</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.4095754725408582</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9884816691932343</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9884452373577233</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.066962483214752</v>
+        <v>4.066787018975333</v>
       </c>
       <c r="C21">
-        <v>0.9305970884430508</v>
+        <v>0.9305280547343102</v>
       </c>
       <c r="D21">
-        <v>0.03994915796268117</v>
+        <v>0.04007976977366923</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.014963293629251</v>
+        <v>1.013079556373128</v>
       </c>
       <c r="G21">
-        <v>0.661591589552998</v>
+        <v>0.2157446802987266</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.4483842321946696</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.119981824293845</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.119926003715136</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.384982709696942</v>
+        <v>4.384759958573852</v>
       </c>
       <c r="C22">
-        <v>1.000679754195517</v>
+        <v>1.000594581103513</v>
       </c>
       <c r="D22">
-        <v>0.04147394539899807</v>
+        <v>0.04161468789062184</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.088796954264282</v>
+        <v>1.086778566732178</v>
       </c>
       <c r="G22">
-        <v>0.7069487476421301</v>
+        <v>0.2329981119682714</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4763215287993887</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.207077726007938</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.207007453115793</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.214806477810214</v>
+        <v>4.214609604517932</v>
       </c>
       <c r="C23">
-        <v>0.9631896336757393</v>
+        <v>0.9631132293707765</v>
       </c>
       <c r="D23">
-        <v>0.04065378350345128</v>
+        <v>0.04078913826813135</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.048912000510441</v>
+        <v>1.046966084452166</v>
       </c>
       <c r="G23">
-        <v>0.6823620608174963</v>
+        <v>0.2236647047511227</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.4611578690686216</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.160476024222717</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.160413644988949</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.57928167401667</v>
+        <v>3.579169807339724</v>
       </c>
       <c r="C24">
-        <v>0.8229273576237972</v>
+        <v>0.8228810313941608</v>
       </c>
       <c r="D24">
-        <v>0.03767785553737468</v>
+        <v>0.03779239951982305</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9077715048939154</v>
+        <v>0.9060877629833612</v>
       </c>
       <c r="G24">
-        <v>0.5970983202072873</v>
+        <v>0.1909012052026995</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.408980878107684</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9863493851671308</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9863132437894677</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.908667734213054</v>
+        <v>2.908625774156519</v>
       </c>
       <c r="C25">
-        <v>0.6744074251827499</v>
+        <v>0.6743883857499782</v>
       </c>
       <c r="D25">
-        <v>0.03469319989356023</v>
+        <v>0.0347845210466744</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7732420058267877</v>
+        <v>0.7718205411981671</v>
       </c>
       <c r="G25">
-        <v>0.5191941386382837</v>
+        <v>0.1601557520815788</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3621434605686389</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.802423347522037</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8024093955373388</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.423840297553795</v>
+        <v>2.563930969372052</v>
       </c>
       <c r="C2">
-        <v>0.5666229125650375</v>
+        <v>0.6010767301351052</v>
       </c>
       <c r="D2">
-        <v>0.03271812080463832</v>
+        <v>0.07637203157182171</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6851213559222344</v>
+        <v>6.770457511078661</v>
       </c>
       <c r="G2">
-        <v>0.1406547771923812</v>
+        <v>0.0008083860416352572</v>
       </c>
       <c r="H2">
-        <v>0.3342188780515087</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.169932948239861</v>
       </c>
       <c r="K2">
-        <v>0.6693037993765074</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5577028283015224</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.099199026349993</v>
+        <v>2.208553539251568</v>
       </c>
       <c r="C3">
-        <v>0.4942187769720476</v>
+        <v>0.5136214265059493</v>
       </c>
       <c r="D3">
-        <v>0.03139175936863836</v>
+        <v>0.0652076361994105</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6326238854117037</v>
+        <v>6.039452934533443</v>
       </c>
       <c r="G3">
-        <v>0.1290419349853806</v>
+        <v>0.0008200128842517764</v>
       </c>
       <c r="H3">
-        <v>0.3187107502469075</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1570000575972657</v>
       </c>
       <c r="K3">
-        <v>0.5800820668677815</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.484567399481648</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.901305107496768</v>
+        <v>1.996550430763705</v>
       </c>
       <c r="C4">
-        <v>0.4499715399358308</v>
+        <v>0.4615459135023343</v>
       </c>
       <c r="D4">
-        <v>0.03060874595602314</v>
+        <v>0.05854754191422984</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6030858562599803</v>
+        <v>5.603096295260315</v>
       </c>
       <c r="G4">
-        <v>0.1225980312643955</v>
+        <v>0.0008272922112368908</v>
       </c>
       <c r="H4">
-        <v>0.3106743434420736</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1493451686944383</v>
       </c>
       <c r="K4">
-        <v>0.5256540558864558</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4411496449734358</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.820957703768414</v>
+        <v>1.911502164816113</v>
       </c>
       <c r="C5">
-        <v>0.4319795264416371</v>
+        <v>0.4406728685401333</v>
       </c>
       <c r="D5">
-        <v>0.03029687852772511</v>
+        <v>0.05587456600321872</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5916729690014293</v>
+        <v>5.427977259922756</v>
       </c>
       <c r="G5">
-        <v>0.1201303840371963</v>
+        <v>0.0008302974941044453</v>
       </c>
       <c r="H5">
-        <v>0.3077456235279996</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.146289314791602</v>
       </c>
       <c r="K5">
-        <v>0.5035457376254939</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4237836725272999</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.807632136548023</v>
+        <v>1.897455367823227</v>
       </c>
       <c r="C6">
-        <v>0.4289939530885931</v>
+        <v>0.4372263244841577</v>
       </c>
       <c r="D6">
-        <v>0.03024551078936</v>
+        <v>0.05543298472531433</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5898140603225883</v>
+        <v>5.399049987106338</v>
       </c>
       <c r="G6">
-        <v>0.1197297940300288</v>
+        <v>0.0008307989662964148</v>
       </c>
       <c r="H6">
-        <v>0.3072794551450428</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1457855056080888</v>
       </c>
       <c r="K6">
-        <v>0.4998784999564236</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4209185490582925</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.900220398777947</v>
+        <v>1.995398261276023</v>
       </c>
       <c r="C7">
-        <v>0.4497287521289479</v>
+        <v>0.4612630766998507</v>
       </c>
       <c r="D7">
-        <v>0.03060451161786304</v>
+        <v>0.05851133682116938</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6029294794572948</v>
+        <v>5.60072419348208</v>
       </c>
       <c r="G7">
-        <v>0.1225641289724706</v>
+        <v>0.0008273325795020714</v>
       </c>
       <c r="H7">
-        <v>0.3106334788536813</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1493037093287271</v>
       </c>
       <c r="K7">
-        <v>0.5253556280064089</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4409141751729919</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.31156467659531</v>
+        <v>2.439973022840434</v>
       </c>
       <c r="C8">
-        <v>0.5416060529767606</v>
+        <v>0.570547101496345</v>
       </c>
       <c r="D8">
-        <v>0.03225384926628294</v>
+        <v>0.07247703453217724</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6664272103764048</v>
+        <v>6.515536307901215</v>
       </c>
       <c r="G8">
-        <v>0.1364992664566316</v>
+        <v>0.0008123681259754415</v>
       </c>
       <c r="H8">
-        <v>0.328546227090321</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1654090259857881</v>
       </c>
       <c r="K8">
-        <v>0.6384555213558727</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.532146927028208</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.132871976324282</v>
+        <v>3.372160811601418</v>
       </c>
       <c r="C9">
-        <v>0.7241142904338176</v>
+        <v>0.8008634873251026</v>
       </c>
       <c r="D9">
-        <v>0.03577197282875488</v>
+        <v>0.1018222391143979</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8149694326380086</v>
+        <v>8.431297693812922</v>
       </c>
       <c r="G9">
-        <v>0.1699744412774322</v>
+        <v>0.000783950929768671</v>
       </c>
       <c r="H9">
-        <v>0.3768044151328311</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1996923708344411</v>
       </c>
       <c r="K9">
-        <v>0.8639352836257927</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.725311334907552</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.750273139120452</v>
+        <v>4.112322895862917</v>
       </c>
       <c r="C10">
-        <v>0.8606832759728036</v>
+        <v>0.9850565642356628</v>
       </c>
       <c r="D10">
-        <v>0.03858573045583569</v>
+        <v>0.125253989795155</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9427756459576528</v>
+        <v>9.950431154188863</v>
       </c>
       <c r="G10">
-        <v>0.1993902971442836</v>
+        <v>0.0007633340062831196</v>
       </c>
       <c r="H10">
-        <v>0.4223192136081124</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2272352775614124</v>
       </c>
       <c r="K10">
-        <v>1.033208097980406</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.8799768621590189</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.035452894979755</v>
+        <v>4.466214498451563</v>
       </c>
       <c r="C11">
-        <v>0.9236181843409383</v>
+        <v>1.07357753817351</v>
       </c>
       <c r="D11">
-        <v>0.03993034720458866</v>
+        <v>0.1365090674437681</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.005981573062357</v>
+        <v>10.67612569671479</v>
       </c>
       <c r="G11">
-        <v>0.2140886709348777</v>
+        <v>0.0007539272215326687</v>
       </c>
       <c r="H11">
-        <v>0.4457250716280825</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2404729562200529</v>
       </c>
       <c r="K11">
-        <v>1.111342796929605</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.954242034875989</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.144183012372991</v>
+        <v>4.603233589478407</v>
       </c>
       <c r="C12">
-        <v>0.9475914339510041</v>
+        <v>1.107933129532199</v>
       </c>
       <c r="D12">
-        <v>0.0404502624916816</v>
+        <v>0.1408763876821411</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.030739502847723</v>
+        <v>10.95697899550657</v>
       </c>
       <c r="G12">
-        <v>0.2198693384092749</v>
+        <v>0.0007503523783145843</v>
       </c>
       <c r="H12">
-        <v>0.4550253115875407</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2456078502610239</v>
       </c>
       <c r="K12">
-        <v>1.141125216530128</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.9830444552163442</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.120731169132966</v>
+        <v>4.573580566610246</v>
       </c>
       <c r="C13">
-        <v>0.9424216605518723</v>
+        <v>1.10049410702652</v>
       </c>
       <c r="D13">
-        <v>0.04033778663365695</v>
+        <v>0.1399307705481476</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.025369204785918</v>
+        <v>10.89620389276291</v>
       </c>
       <c r="G13">
-        <v>0.2186143845666422</v>
+        <v>0.0007511230061491486</v>
       </c>
       <c r="H13">
-        <v>0.453002072666429</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2444961644372654</v>
       </c>
       <c r="K13">
-        <v>1.134701844065532</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.9768089637056363</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.044382662217231</v>
+        <v>4.477423392463265</v>
       </c>
       <c r="C14">
-        <v>0.9255874962042867</v>
+        <v>1.076386265606686</v>
       </c>
       <c r="D14">
-        <v>0.03997289673101534</v>
+        <v>0.136866133454447</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.008001344058414</v>
+        <v>10.69910356734056</v>
       </c>
       <c r="G14">
-        <v>0.2145597914198234</v>
+        <v>0.0007536334274050334</v>
       </c>
       <c r="H14">
-        <v>0.4464811530841288</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2408928304061249</v>
       </c>
       <c r="K14">
-        <v>1.113788921437816</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.9565972408277332</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.997716911252837</v>
+        <v>4.418933854906015</v>
       </c>
       <c r="C15">
-        <v>0.9152952549688393</v>
+        <v>1.061733342367972</v>
       </c>
       <c r="D15">
-        <v>0.03975083592408879</v>
+        <v>0.1350033119963001</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9974732259656918</v>
+        <v>10.5791969261993</v>
       </c>
       <c r="G15">
-        <v>0.2121049986012267</v>
+        <v>0.0007551691925670758</v>
       </c>
       <c r="H15">
-        <v>0.4425453399163715</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2387022496378819</v>
       </c>
       <c r="K15">
-        <v>1.101005487300782</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.9443094190185022</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.731732659450415</v>
+        <v>4.089584579292307</v>
       </c>
       <c r="C16">
-        <v>0.8565886687540285</v>
+        <v>0.9793791871630049</v>
       </c>
       <c r="D16">
-        <v>0.0384992759846341</v>
+        <v>0.1245320216234518</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.938754794951592</v>
+        <v>9.903788906728693</v>
       </c>
       <c r="G16">
-        <v>0.1984583264436139</v>
+        <v>0.0007639474943428408</v>
       </c>
       <c r="H16">
-        <v>0.4208479642539018</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2263860579065238</v>
       </c>
       <c r="K16">
-        <v>1.028127219085931</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8752116370540008</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.569746129044916</v>
+        <v>3.892291237050188</v>
       </c>
       <c r="C17">
-        <v>0.8207980678372451</v>
+        <v>0.9301694718182318</v>
       </c>
       <c r="D17">
-        <v>0.03774900260440717</v>
+        <v>0.1182736055454541</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9040946908624363</v>
+        <v>9.49901606318258</v>
       </c>
       <c r="G17">
-        <v>0.1904409977869364</v>
+        <v>0.0007693198579684866</v>
       </c>
       <c r="H17">
-        <v>0.4082619879812768</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2190250926754302</v>
       </c>
       <c r="K17">
-        <v>0.9837301152992808</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8338999288179707</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.476974705059376</v>
+        <v>3.78039352755593</v>
       </c>
       <c r="C18">
-        <v>0.8002867600757781</v>
+        <v>0.9022997365521235</v>
       </c>
       <c r="D18">
-        <v>0.03732345020390682</v>
+        <v>0.1147286429109897</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8846297249263699</v>
+        <v>9.269386591257899</v>
       </c>
       <c r="G18">
-        <v>0.1859519269477445</v>
+        <v>0.0007724078653784624</v>
       </c>
       <c r="H18">
-        <v>0.4012738859451375</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2148565133892717</v>
       </c>
       <c r="K18">
-        <v>0.9582984900331155</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.810497997451705</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.445629045371447</v>
+        <v>3.742763619465848</v>
       </c>
       <c r="C19">
-        <v>0.7933540682222429</v>
+        <v>0.892933925077898</v>
       </c>
       <c r="D19">
-        <v>0.0371803525896226</v>
+        <v>0.1135372404580579</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8781173309715768</v>
+        <v>9.192155750601444</v>
       </c>
       <c r="G19">
-        <v>0.1844522802697881</v>
+        <v>0.000773453299932872</v>
       </c>
       <c r="H19">
-        <v>0.3989495543606196</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2134557563826789</v>
       </c>
       <c r="K19">
-        <v>0.949704800785085</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8026330195113545</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.586947773340967</v>
+        <v>3.913126354303358</v>
       </c>
       <c r="C20">
-        <v>0.8246001571878026</v>
+        <v>0.9353619535206406</v>
       </c>
       <c r="D20">
-        <v>0.03782824122946238</v>
+        <v>0.1189340323237786</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9077349588752952</v>
+        <v>9.541768081232277</v>
       </c>
       <c r="G20">
-        <v>0.1912816255058232</v>
+        <v>0.0007687482286553582</v>
       </c>
       <c r="H20">
-        <v>0.4095754725408582</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2198017922519497</v>
       </c>
       <c r="K20">
-        <v>0.9884452373577233</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8382596459621041</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.066787018975333</v>
+        <v>4.505580627909637</v>
       </c>
       <c r="C21">
-        <v>0.9305280547343102</v>
+        <v>1.083443278954491</v>
       </c>
       <c r="D21">
-        <v>0.04007976977366923</v>
+        <v>0.1377632589041866</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.013079556373128</v>
+        <v>10.75682298358942</v>
       </c>
       <c r="G21">
-        <v>0.2157446802987266</v>
+        <v>0.0007528964783178783</v>
       </c>
       <c r="H21">
-        <v>0.4483842321946696</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2419477228542846</v>
       </c>
       <c r="K21">
-        <v>1.119926003715136</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9625144033109336</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.384759958573852</v>
+        <v>4.910650759438909</v>
       </c>
       <c r="C22">
-        <v>1.000594581103513</v>
+        <v>1.185184782801457</v>
       </c>
       <c r="D22">
-        <v>0.04161468789062184</v>
+        <v>0.1506949911627231</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.086778566732178</v>
+        <v>11.58684744773103</v>
       </c>
       <c r="G22">
-        <v>0.2329981119682714</v>
+        <v>0.0007424570657768385</v>
       </c>
       <c r="H22">
-        <v>0.4763215287993887</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2571453840541835</v>
       </c>
       <c r="K22">
-        <v>1.207007453115793</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.047758024484295</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.214609604517932</v>
+        <v>4.69261500147536</v>
       </c>
       <c r="C23">
-        <v>0.9631132293707765</v>
+        <v>1.130369435111106</v>
       </c>
       <c r="D23">
-        <v>0.04078913826813135</v>
+        <v>0.1437282638110702</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.046966084452166</v>
+        <v>11.14015010656442</v>
       </c>
       <c r="G23">
-        <v>0.2236647047511227</v>
+        <v>0.0007480393785955088</v>
       </c>
       <c r="H23">
-        <v>0.4611578690686216</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2489600778128391</v>
       </c>
       <c r="K23">
-        <v>1.160413644988949</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.001846983154039</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.579169807339724</v>
+        <v>3.903702074764851</v>
       </c>
       <c r="C24">
-        <v>0.8228810313941608</v>
+        <v>0.9330131306149951</v>
       </c>
       <c r="D24">
-        <v>0.03779239951982305</v>
+        <v>0.1186352894577425</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9060877629833612</v>
+        <v>9.522430378727648</v>
       </c>
       <c r="G24">
-        <v>0.1909012052026995</v>
+        <v>0.000769006663410227</v>
       </c>
       <c r="H24">
-        <v>0.408980878107684</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2194504505647714</v>
       </c>
       <c r="K24">
-        <v>0.9863132437894677</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8362875402411873</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.908625774156519</v>
+        <v>3.111789724883408</v>
       </c>
       <c r="C25">
-        <v>0.6743883857499782</v>
+        <v>0.736357212656003</v>
       </c>
       <c r="D25">
-        <v>0.0347845210466744</v>
+        <v>0.09361048538626449</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7718205411981671</v>
+        <v>7.896489848326553</v>
       </c>
       <c r="G25">
-        <v>0.1601557520815788</v>
+        <v>0.0007915677616755363</v>
       </c>
       <c r="H25">
-        <v>0.3621434605686389</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1900622456037198</v>
       </c>
       <c r="K25">
-        <v>0.8024093955373388</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0.6711502377276517</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.563930969372052</v>
+        <v>1.378640102481882</v>
       </c>
       <c r="C2">
-        <v>0.6010767301351052</v>
+        <v>0.087878245040379</v>
       </c>
       <c r="D2">
-        <v>0.07637203157182171</v>
+        <v>0.0602457883986105</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.770457511078661</v>
+        <v>1.323122436967097</v>
       </c>
       <c r="G2">
-        <v>0.0008083860416352572</v>
+        <v>1.031480407338464</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.7218004276362109</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.169932948239861</v>
+        <v>0.09262614438176797</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.108103878135353</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2373764358030144</v>
       </c>
       <c r="M2">
-        <v>0.5577028283015224</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.323115021716589</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.208553539251568</v>
+        <v>1.213496964448893</v>
       </c>
       <c r="C3">
-        <v>0.5136214265059493</v>
+        <v>0.08209573910101398</v>
       </c>
       <c r="D3">
-        <v>0.0652076361994105</v>
+        <v>0.05410778459128807</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.039452934533443</v>
+        <v>1.281403140778451</v>
       </c>
       <c r="G3">
-        <v>0.0008200128842517764</v>
+        <v>0.9975372452055353</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.7136600004091065</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1570000575972657</v>
+        <v>0.09180721839944184</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9647607082501111</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2147520366958418</v>
       </c>
       <c r="M3">
-        <v>0.484567399481648</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.37422061747445</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.996550430763705</v>
+        <v>1.113178290919279</v>
       </c>
       <c r="C4">
-        <v>0.4615459135023343</v>
+        <v>0.07854111424160237</v>
       </c>
       <c r="D4">
-        <v>0.05854754191422984</v>
+        <v>0.05037499111357135</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.603096295260315</v>
+        <v>1.257771329695515</v>
       </c>
       <c r="G4">
-        <v>0.0008272922112368908</v>
+        <v>0.9784265016732974</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.7096608973858309</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1493451686944383</v>
+        <v>0.09141103603791478</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8774615229885967</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2010876050401933</v>
       </c>
       <c r="M4">
-        <v>0.4411496449734358</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.407085650968654</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.911502164816113</v>
+        <v>1.072543153931349</v>
       </c>
       <c r="C5">
-        <v>0.4406728685401333</v>
+        <v>0.07709071216172703</v>
       </c>
       <c r="D5">
-        <v>0.05587456600321872</v>
+        <v>0.04886226961696849</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.427977259922756</v>
+        <v>1.248616717822976</v>
       </c>
       <c r="G5">
-        <v>0.0008302974941044453</v>
+        <v>0.971051924806261</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.7082725919749464</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.146289314791602</v>
+        <v>0.09127555043527025</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8420441962643395</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1955723847825439</v>
       </c>
       <c r="M5">
-        <v>0.4237836725272999</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.420843115603404</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.897455367823227</v>
+        <v>1.065809817650859</v>
       </c>
       <c r="C6">
-        <v>0.4372263244841577</v>
+        <v>0.0768497384264677</v>
       </c>
       <c r="D6">
-        <v>0.05543298472531433</v>
+        <v>0.04861157455444953</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.399049987106338</v>
+        <v>1.247124664343389</v>
       </c>
       <c r="G6">
-        <v>0.0008307989662964148</v>
+        <v>0.9698517197250993</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.7080563639198374</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1457855056080888</v>
+        <v>0.09125459708153016</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8361720941040005</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.194659685372919</v>
       </c>
       <c r="M6">
-        <v>0.4209185490582925</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.423149306239242</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.995398261276023</v>
+        <v>1.112629310395846</v>
       </c>
       <c r="C7">
-        <v>0.4612630766998507</v>
+        <v>0.07852156220553752</v>
       </c>
       <c r="D7">
-        <v>0.05851133682116938</v>
+        <v>0.05035455671672651</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.60072419348208</v>
+        <v>1.257645971878944</v>
       </c>
       <c r="G7">
-        <v>0.0008273325795020714</v>
+        <v>0.9783254006175497</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.7096412096113482</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1493037093287271</v>
+        <v>0.09140910480803655</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8769832614788413</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2010130147187326</v>
       </c>
       <c r="M7">
-        <v>0.4409141751729919</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.407269723779194</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.439973022840434</v>
+        <v>1.321458459618754</v>
       </c>
       <c r="C8">
-        <v>0.570547101496345</v>
+        <v>0.08588478391574483</v>
       </c>
       <c r="D8">
-        <v>0.07247703453217724</v>
+        <v>0.05812155273200403</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.515536307901215</v>
+        <v>1.308311375734377</v>
       </c>
       <c r="G8">
-        <v>0.0008123681259754415</v>
+        <v>1.019404046603086</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.7187801095567323</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1654090259857881</v>
+        <v>0.0923211165459179</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.05851741117209</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2295259717807596</v>
       </c>
       <c r="M8">
-        <v>0.532146927028208</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.340422266985037</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.372160811601418</v>
+        <v>1.740808404129439</v>
       </c>
       <c r="C9">
-        <v>0.8008634873251026</v>
+        <v>0.1003316699818768</v>
       </c>
       <c r="D9">
-        <v>0.1018222391143979</v>
+        <v>0.0736686311041268</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.431297693812922</v>
+        <v>1.424533699541243</v>
       </c>
       <c r="G9">
-        <v>0.000783950929768671</v>
+        <v>1.114746863028984</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.7451054804554786</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1996923708344411</v>
+        <v>0.09499680890735007</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.421234079490546</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2874331544411319</v>
       </c>
       <c r="M9">
-        <v>0.725311334907552</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.221552192514089</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.112322895862917</v>
+        <v>2.056814167321704</v>
       </c>
       <c r="C10">
-        <v>0.9850565642356628</v>
+        <v>0.1110122805111047</v>
       </c>
       <c r="D10">
-        <v>0.125253989795155</v>
+        <v>0.08533034113767002</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.950431154188863</v>
+        <v>1.521885336088502</v>
       </c>
       <c r="G10">
-        <v>0.0007633340062831196</v>
+        <v>1.195387953522243</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7702809954759573</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2272352775614124</v>
+        <v>0.09756473998379178</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.693428836267145</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3314814591785336</v>
       </c>
       <c r="M10">
-        <v>0.8799768621590189</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.142297122870339</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.466214498451563</v>
+        <v>2.20275231569525</v>
       </c>
       <c r="C11">
-        <v>1.07357753817351</v>
+        <v>0.1159007832820222</v>
       </c>
       <c r="D11">
-        <v>0.1365090674437681</v>
+        <v>0.09069874303666836</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.67612569671479</v>
+        <v>1.569175469627879</v>
       </c>
       <c r="G11">
-        <v>0.0007539272215326687</v>
+        <v>1.23475415486385</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.7831724437847214</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2404729562200529</v>
+        <v>0.09887840194878805</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.818884299418983</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3519162225644834</v>
       </c>
       <c r="M11">
-        <v>0.954242034875989</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.10814864822337</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.603233589478407</v>
+        <v>2.258370777153061</v>
       </c>
       <c r="C12">
-        <v>1.107933129532199</v>
+        <v>0.1177576003356364</v>
       </c>
       <c r="D12">
-        <v>0.1408763876821411</v>
+        <v>0.09274172713677586</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.95697899550657</v>
+        <v>1.587551581832074</v>
       </c>
       <c r="G12">
-        <v>0.0007503523783145843</v>
+        <v>1.250081218651204</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.7882765811292529</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2456078502610239</v>
+        <v>0.09939809877318595</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.866660468700275</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3597176174207419</v>
       </c>
       <c r="M12">
-        <v>0.9830444552163442</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.095505543989901</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.573580566610246</v>
+        <v>2.246375883084511</v>
       </c>
       <c r="C13">
-        <v>1.10049410702652</v>
+        <v>0.1173574274486597</v>
       </c>
       <c r="D13">
-        <v>0.1399307705481476</v>
+        <v>0.0923012691672227</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.89620389276291</v>
+        <v>1.583572516804452</v>
       </c>
       <c r="G13">
-        <v>0.0007511230061491486</v>
+        <v>1.246761009393865</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7871671610124054</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2444961644372654</v>
+        <v>0.09928516145998145</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.856358482707861</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.358034534452031</v>
       </c>
       <c r="M13">
-        <v>0.9768089637056363</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.09821540651005</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.477423392463265</v>
+        <v>2.207320724183546</v>
       </c>
       <c r="C14">
-        <v>1.076386265606686</v>
+        <v>0.116053423342116</v>
       </c>
       <c r="D14">
-        <v>0.136866133454447</v>
+        <v>0.09086661261640216</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.69910356734056</v>
+        <v>1.570677678199701</v>
       </c>
       <c r="G14">
-        <v>0.0007536334274050334</v>
+        <v>1.236006499427873</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7835878132037095</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2408928304061249</v>
+        <v>0.09892070404407605</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.822809278877685</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3525567448100588</v>
       </c>
       <c r="M14">
-        <v>0.9565972408277332</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.107102631121684</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.418933854906015</v>
+        <v>2.183445783615809</v>
       </c>
       <c r="C15">
-        <v>1.061733342367972</v>
+        <v>0.1152554610006078</v>
       </c>
       <c r="D15">
-        <v>0.1350033119963001</v>
+        <v>0.0899891875819776</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.5791969261993</v>
+        <v>1.562841340127676</v>
       </c>
       <c r="G15">
-        <v>0.0007551691925670758</v>
+        <v>1.229474803292788</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7814248072609757</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2387022496378819</v>
+        <v>0.09870040075535513</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.802295502905309</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3492098596652653</v>
       </c>
       <c r="M15">
-        <v>0.9443094190185022</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.112584285046402</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.089584579292307</v>
+        <v>2.047324140031094</v>
       </c>
       <c r="C16">
-        <v>0.9793791871630049</v>
+        <v>0.110693518919291</v>
       </c>
       <c r="D16">
-        <v>0.1245320216234518</v>
+        <v>0.08498086070112265</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.903788906728693</v>
+        <v>1.518858311790254</v>
       </c>
       <c r="G16">
-        <v>0.0007639474943428408</v>
+        <v>1.192872117223473</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.769468761921857</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2263860579065238</v>
+        <v>0.09748192734015149</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.685265735749965</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3301544988612903</v>
       </c>
       <c r="M16">
-        <v>0.8752116370540008</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.144568331528212</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.892291237050188</v>
+        <v>1.964405557145369</v>
       </c>
       <c r="C17">
-        <v>0.9301694718182318</v>
+        <v>0.1079034841887605</v>
       </c>
       <c r="D17">
-        <v>0.1182736055454541</v>
+        <v>0.08192532458745916</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.49901606318258</v>
+        <v>1.492670607747499</v>
       </c>
       <c r="G17">
-        <v>0.0007693198579684866</v>
+        <v>1.171128040278745</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7625133163002715</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2190250926754302</v>
+        <v>0.09677260593695891</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.61391336550966</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.318570524867468</v>
       </c>
       <c r="M17">
-        <v>0.8338999288179707</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.164687210934424</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.78039352755593</v>
+        <v>1.916916081209195</v>
       </c>
       <c r="C18">
-        <v>0.9022997365521235</v>
+        <v>0.1063014503491857</v>
       </c>
       <c r="D18">
-        <v>0.1147286429109897</v>
+        <v>0.0801737694380904</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.269386591257899</v>
+        <v>1.477888580722805</v>
       </c>
       <c r="G18">
-        <v>0.0007724078653784624</v>
+        <v>1.158871674364391</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7586471724859791</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2148565133892717</v>
+        <v>0.09637823315501137</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.573024846401808</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3119447009535179</v>
       </c>
       <c r="M18">
-        <v>0.810497997451705</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.176437452870772</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.742763619465848</v>
+        <v>1.900870658916517</v>
       </c>
       <c r="C19">
-        <v>0.892933925077898</v>
+        <v>0.1057594571183813</v>
       </c>
       <c r="D19">
-        <v>0.1135372404580579</v>
+        <v>0.07958170951285837</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.192155750601444</v>
+        <v>1.472930746525634</v>
       </c>
       <c r="G19">
-        <v>0.000773453299932872</v>
+        <v>1.154763860991139</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7573608012942117</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2134557563826789</v>
+        <v>0.09624700429188948</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.559205717222397</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3097074822181156</v>
       </c>
       <c r="M19">
-        <v>0.8026330195113545</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.180446107063439</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.913126354303358</v>
+        <v>1.973211078104327</v>
       </c>
       <c r="C20">
-        <v>0.9353619535206406</v>
+        <v>0.1082001971737512</v>
       </c>
       <c r="D20">
-        <v>0.1189340323237786</v>
+        <v>0.08224997336674278</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.541768081232277</v>
+        <v>1.495429054153973</v>
       </c>
       <c r="G20">
-        <v>0.0007687482286553582</v>
+        <v>1.173416594845548</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.76323971251513</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2198017922519497</v>
+        <v>0.09684669657919898</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.621493031347399</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3197997895098581</v>
       </c>
       <c r="M20">
-        <v>0.8382596459621041</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.162526959229467</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.505580627909637</v>
+        <v>2.218782200890132</v>
       </c>
       <c r="C21">
-        <v>1.083443278954491</v>
+        <v>0.1164362762584901</v>
       </c>
       <c r="D21">
-        <v>0.1377632589041866</v>
+        <v>0.09128772420238818</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.75682298358942</v>
+        <v>1.574452189530433</v>
       </c>
       <c r="G21">
-        <v>0.0007528964783178783</v>
+        <v>1.239153676031023</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7846329880371883</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2419477228542846</v>
+        <v>0.0990271393698805</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.832655909350905</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3541639382723645</v>
       </c>
       <c r="M21">
-        <v>0.9625144033109336</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.104484297381383</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.910650759438909</v>
+        <v>2.381366707581492</v>
       </c>
       <c r="C22">
-        <v>1.185184782801457</v>
+        <v>0.1218526687590895</v>
       </c>
       <c r="D22">
-        <v>0.1506949911627231</v>
+        <v>0.09725371345932388</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.58684744773103</v>
+        <v>1.6288473717931</v>
       </c>
       <c r="G22">
-        <v>0.0007424570657768385</v>
+        <v>1.284582308768506</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7999193207985513</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2571453840541835</v>
+        <v>0.1005825131169189</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.972248350702131</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3769944255152211</v>
       </c>
       <c r="M22">
-        <v>1.047758024484295</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.068237274561895</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.69261500147536</v>
+        <v>2.294386826564278</v>
       </c>
       <c r="C23">
-        <v>1.130369435111106</v>
+        <v>0.1189582784399477</v>
       </c>
       <c r="D23">
-        <v>0.1437282638110702</v>
+        <v>0.0940637882355162</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.14015010656442</v>
+        <v>1.599551327278064</v>
       </c>
       <c r="G23">
-        <v>0.0007480393785955088</v>
+        <v>1.260098535096887</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7916358900776856</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2489600778128391</v>
+        <v>0.0997399927598579</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.89758816650189</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.364773223275094</v>
       </c>
       <c r="M23">
-        <v>1.001846983154039</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.087423598668842</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.903702074764851</v>
+        <v>1.969229539706703</v>
       </c>
       <c r="C24">
-        <v>0.9330131306149951</v>
+        <v>0.1080660471225414</v>
       </c>
       <c r="D24">
-        <v>0.1186352894577425</v>
+        <v>0.0821031837990418</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.522430378727648</v>
+        <v>1.494181110941028</v>
       </c>
       <c r="G24">
-        <v>0.000769006663410227</v>
+        <v>1.172381180027728</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7629108968164928</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2194504505647714</v>
+        <v>0.09681315848083472</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.618065852986632</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3192439336525723</v>
       </c>
       <c r="M24">
-        <v>0.8362875402411873</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.163503038121164</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.111789724883408</v>
+        <v>1.626120834069724</v>
       </c>
       <c r="C25">
-        <v>0.736357212656003</v>
+        <v>0.09641651219148173</v>
       </c>
       <c r="D25">
-        <v>0.09361048538626449</v>
+        <v>0.06942428518011212</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.896489848326553</v>
+        <v>1.391120478786121</v>
       </c>
       <c r="G25">
-        <v>0.0007915677616755363</v>
+        <v>1.08721496982497</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.7370137991299117</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1900622456037198</v>
+        <v>0.09417191607949249</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.322230587297014</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2715257393631134</v>
       </c>
       <c r="M25">
-        <v>0.6711502377276517</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.252339526677105</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.378640102481882</v>
+        <v>1.213789594805377</v>
       </c>
       <c r="C2">
-        <v>0.087878245040379</v>
+        <v>0.07747796966823017</v>
       </c>
       <c r="D2">
-        <v>0.0602457883986105</v>
+        <v>0.09677830275133914</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.323122436967097</v>
+        <v>2.503589715813845</v>
       </c>
       <c r="G2">
-        <v>1.031480407338464</v>
+        <v>1.788449332019695</v>
       </c>
       <c r="H2">
-        <v>0.7218004276362109</v>
+        <v>1.570252067700395</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09262614438176797</v>
+        <v>0.2217237369403904</v>
       </c>
       <c r="K2">
-        <v>1.108103878135353</v>
+        <v>0.6879678976690116</v>
       </c>
       <c r="L2">
-        <v>0.2373764358030144</v>
+        <v>0.3379112669186384</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.323115021716589</v>
+        <v>2.698121543173322</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.213496964448893</v>
+        <v>1.175233221520443</v>
       </c>
       <c r="C3">
-        <v>0.08209573910101398</v>
+        <v>0.07546900259902145</v>
       </c>
       <c r="D3">
-        <v>0.05410778459128807</v>
+        <v>0.09557695401960586</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.281403140778451</v>
+        <v>2.506502169072846</v>
       </c>
       <c r="G3">
-        <v>0.9975372452055353</v>
+        <v>1.789873699694411</v>
       </c>
       <c r="H3">
-        <v>0.7136600004091065</v>
+        <v>1.57598740455569</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09180721839944184</v>
+        <v>0.2225420270327803</v>
       </c>
       <c r="K3">
-        <v>0.9647607082501111</v>
+        <v>0.6515379606852321</v>
       </c>
       <c r="L3">
-        <v>0.2147520366958418</v>
+        <v>0.3337576971068188</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.37422061747445</v>
+        <v>2.719963048001844</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.113178290919279</v>
+        <v>1.152148396342426</v>
       </c>
       <c r="C4">
-        <v>0.07854111424160237</v>
+        <v>0.07421664028713337</v>
       </c>
       <c r="D4">
-        <v>0.05037499111357135</v>
+        <v>0.09487322769435735</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.257771329695515</v>
+        <v>2.509349661701179</v>
       </c>
       <c r="G4">
-        <v>0.9784265016732974</v>
+        <v>1.791586846042222</v>
       </c>
       <c r="H4">
-        <v>0.7096608973858309</v>
+        <v>1.580079002222845</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09141103603791478</v>
+        <v>0.2231139104880171</v>
       </c>
       <c r="K4">
-        <v>0.8774615229885967</v>
+        <v>0.6294976425329537</v>
       </c>
       <c r="L4">
-        <v>0.2010876050401933</v>
+        <v>0.3313529988256718</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.407085650968654</v>
+        <v>2.734114622693884</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.072543153931349</v>
+        <v>1.14288979695786</v>
       </c>
       <c r="C5">
-        <v>0.07709071216172703</v>
+        <v>0.07370154841981247</v>
       </c>
       <c r="D5">
-        <v>0.04886226961696849</v>
+        <v>0.09459502656767427</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.248616717822976</v>
+        <v>2.510776584822196</v>
       </c>
       <c r="G5">
-        <v>0.971051924806261</v>
+        <v>1.792495858416586</v>
       </c>
       <c r="H5">
-        <v>0.7082725919749464</v>
+        <v>1.581889842491208</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09127555043527025</v>
+        <v>0.2233644484304449</v>
       </c>
       <c r="K5">
-        <v>0.8420441962643395</v>
+        <v>0.6205988391944288</v>
       </c>
       <c r="L5">
-        <v>0.1955723847825439</v>
+        <v>0.3304097872146912</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.420843115603404</v>
+        <v>2.740067796421076</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.065809817650859</v>
+        <v>1.141361408464576</v>
       </c>
       <c r="C6">
-        <v>0.0768497384264677</v>
+        <v>0.07361573114922493</v>
       </c>
       <c r="D6">
-        <v>0.04861157455444953</v>
+        <v>0.09454935065831194</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.247124664343389</v>
+        <v>2.511029628834095</v>
       </c>
       <c r="G6">
-        <v>0.9698517197250993</v>
+        <v>1.792659537300352</v>
       </c>
       <c r="H6">
-        <v>0.7080563639198374</v>
+        <v>1.582199200895644</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09125459708153016</v>
+        <v>0.2234071072625241</v>
       </c>
       <c r="K6">
-        <v>0.8361720941040005</v>
+        <v>0.6191262119927785</v>
       </c>
       <c r="L6">
-        <v>0.194659685372919</v>
+        <v>0.3302553887640656</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.423149306239242</v>
+        <v>2.741067568353383</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.112629310395846</v>
+        <v>1.152022928994796</v>
       </c>
       <c r="C7">
-        <v>0.07852156220553752</v>
+        <v>0.0742097127915855</v>
       </c>
       <c r="D7">
-        <v>0.05035455671672651</v>
+        <v>0.0948694410026576</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.257645971878944</v>
+        <v>2.509367826194236</v>
       </c>
       <c r="G7">
-        <v>0.9783254006175497</v>
+        <v>1.791598251381146</v>
       </c>
       <c r="H7">
-        <v>0.7096412096113482</v>
+        <v>1.580102842729204</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09140910480803655</v>
+        <v>0.2231172184744885</v>
       </c>
       <c r="K7">
-        <v>0.8769832614788413</v>
+        <v>0.6293772943861882</v>
       </c>
       <c r="L7">
-        <v>0.2010130147187326</v>
+        <v>0.3313401295128457</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.407269723779194</v>
+        <v>2.734194154976706</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.321458459618754</v>
+        <v>1.200373442395573</v>
       </c>
       <c r="C8">
-        <v>0.08588478391574483</v>
+        <v>0.07678918661768819</v>
       </c>
       <c r="D8">
-        <v>0.05812155273200403</v>
+        <v>0.09635706795690169</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.308311375734377</v>
+        <v>2.504374196470593</v>
       </c>
       <c r="G8">
-        <v>1.019404046603086</v>
+        <v>1.788766416899975</v>
       </c>
       <c r="H8">
-        <v>0.7187801095567323</v>
+        <v>1.572111368730788</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0923211165459179</v>
+        <v>0.2219914850497204</v>
       </c>
       <c r="K8">
-        <v>1.05851741117209</v>
+        <v>0.6753390300273452</v>
       </c>
       <c r="L8">
-        <v>0.2295259717807596</v>
+        <v>0.3364489570099209</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.340422266985037</v>
+        <v>2.705498749003766</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.740808404129439</v>
+        <v>1.299843253204529</v>
       </c>
       <c r="C9">
-        <v>0.1003316699818768</v>
+        <v>0.08169837629115762</v>
       </c>
       <c r="D9">
-        <v>0.0736686311041268</v>
+        <v>0.09954149828890735</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.424533699541243</v>
+        <v>2.502980041364737</v>
       </c>
       <c r="G9">
-        <v>1.114746863028984</v>
+        <v>1.789867860352075</v>
       </c>
       <c r="H9">
-        <v>0.7451054804554786</v>
+        <v>1.560958421888117</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09499680890735007</v>
+        <v>0.2203338622012829</v>
       </c>
       <c r="K9">
-        <v>1.421234079490546</v>
+        <v>0.7680597200325963</v>
       </c>
       <c r="L9">
-        <v>0.2874331544411319</v>
+        <v>0.3476188407624932</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.221552192514089</v>
+        <v>2.655103857766044</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.056814167321704</v>
+        <v>1.375745685506843</v>
       </c>
       <c r="C10">
-        <v>0.1110122805111047</v>
+        <v>0.08521507945158646</v>
       </c>
       <c r="D10">
-        <v>0.08533034113767002</v>
+        <v>0.1020418581564186</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.521885336088502</v>
+        <v>2.507070656217394</v>
       </c>
       <c r="G10">
-        <v>1.195387953522243</v>
+        <v>1.794738099603421</v>
       </c>
       <c r="H10">
-        <v>0.7702809954759573</v>
+        <v>1.555513188041459</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09756473998379178</v>
+        <v>0.2194498624778696</v>
       </c>
       <c r="K10">
-        <v>1.693428836267145</v>
+        <v>0.8377532890818316</v>
       </c>
       <c r="L10">
-        <v>0.3314814591785336</v>
+        <v>0.3565234096262202</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.142297122870339</v>
+        <v>2.621658626450021</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.20275231569525</v>
+        <v>1.410885710874368</v>
       </c>
       <c r="C11">
-        <v>0.1159007832820222</v>
+        <v>0.08679555742633482</v>
       </c>
       <c r="D11">
-        <v>0.09069874303666836</v>
+        <v>0.1032138146360495</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.569175469627879</v>
+        <v>2.510041460190152</v>
       </c>
       <c r="G11">
-        <v>1.23475415486385</v>
+        <v>1.797836622028129</v>
       </c>
       <c r="H11">
-        <v>0.7831724437847214</v>
+        <v>1.553631804114573</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09887840194878805</v>
+        <v>0.2191199154045762</v>
       </c>
       <c r="K11">
-        <v>1.818884299418983</v>
+        <v>0.8697989499856931</v>
       </c>
       <c r="L11">
-        <v>0.3519162225644834</v>
+        <v>0.3607251577979014</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.10814864822337</v>
+        <v>2.607220311314286</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.258370777153061</v>
+        <v>1.424279848419644</v>
       </c>
       <c r="C12">
-        <v>0.1177576003356364</v>
+        <v>0.08739127871940156</v>
       </c>
       <c r="D12">
-        <v>0.09274172713677586</v>
+        <v>0.1036625268964073</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.587551581832074</v>
+        <v>2.511325917779558</v>
       </c>
       <c r="G12">
-        <v>1.250081218651204</v>
+        <v>1.799136973482533</v>
       </c>
       <c r="H12">
-        <v>0.7882765811292529</v>
+        <v>1.553004929649859</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09939809877318595</v>
+        <v>0.219005329190864</v>
       </c>
       <c r="K12">
-        <v>1.866660468700275</v>
+        <v>0.8819826834128719</v>
       </c>
       <c r="L12">
-        <v>0.3597176174207419</v>
+        <v>0.3623378775581614</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.095505543989901</v>
+        <v>2.601864500842524</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.246375883084511</v>
+        <v>1.421391304531937</v>
       </c>
       <c r="C13">
-        <v>0.1173574274486597</v>
+        <v>0.08726310270507298</v>
       </c>
       <c r="D13">
-        <v>0.0923012691672227</v>
+        <v>0.1035656707203216</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.583572516804452</v>
+        <v>2.511042196095559</v>
       </c>
       <c r="G13">
-        <v>1.246761009393865</v>
+        <v>1.798851270310095</v>
       </c>
       <c r="H13">
-        <v>0.7871671610124054</v>
+        <v>1.553136134233895</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09928516145998145</v>
+        <v>0.219029547091786</v>
       </c>
       <c r="K13">
-        <v>1.856358482707861</v>
+        <v>0.8793565371879879</v>
       </c>
       <c r="L13">
-        <v>0.358034534452031</v>
+        <v>0.3619895901391601</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.09821540651005</v>
+        <v>2.603013002992007</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.207320724183546</v>
+        <v>1.411985906865596</v>
       </c>
       <c r="C14">
-        <v>0.116053423342116</v>
+        <v>0.0868446233065896</v>
       </c>
       <c r="D14">
-        <v>0.09086661261640216</v>
+        <v>0.1032506321766249</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.570677678199701</v>
+        <v>2.510143937854508</v>
       </c>
       <c r="G14">
-        <v>1.236006499427873</v>
+        <v>1.797941057113306</v>
       </c>
       <c r="H14">
-        <v>0.7835878132037095</v>
+        <v>1.553578516458387</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09892070404407605</v>
+        <v>0.2191102808781622</v>
       </c>
       <c r="K14">
-        <v>1.822809278877685</v>
+        <v>0.8708003385910956</v>
       </c>
       <c r="L14">
-        <v>0.3525567448100588</v>
+        <v>0.3608574047594715</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.107102631121684</v>
+        <v>2.606777447220708</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.183445783615809</v>
+        <v>1.406236190550146</v>
       </c>
       <c r="C15">
-        <v>0.1152554610006078</v>
+        <v>0.08658793173577806</v>
       </c>
       <c r="D15">
-        <v>0.0899891875819776</v>
+        <v>0.1030583010004023</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.562841340127676</v>
+        <v>2.509614493657367</v>
       </c>
       <c r="G15">
-        <v>1.229474803292788</v>
+        <v>1.797400066387866</v>
       </c>
       <c r="H15">
-        <v>0.7814248072609757</v>
+        <v>1.553860628661909</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09870040075535513</v>
+        <v>0.2191610808339064</v>
       </c>
       <c r="K15">
-        <v>1.802295502905309</v>
+        <v>0.8655657550492322</v>
       </c>
       <c r="L15">
-        <v>0.3492098596652653</v>
+        <v>0.3601667194749325</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.112584285046402</v>
+        <v>2.609097822236187</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.047324140031094</v>
+        <v>1.373461460224689</v>
       </c>
       <c r="C16">
-        <v>0.110693518919291</v>
+        <v>0.08511140356143443</v>
       </c>
       <c r="D16">
-        <v>0.08498086070112265</v>
+        <v>0.1019659588058559</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.518858311790254</v>
+        <v>2.506898831096564</v>
       </c>
       <c r="G16">
-        <v>1.192872117223473</v>
+        <v>1.794553375171873</v>
       </c>
       <c r="H16">
-        <v>0.769468761921857</v>
+        <v>1.555648119506714</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09748192734015149</v>
+        <v>0.2194728759422233</v>
       </c>
       <c r="K16">
-        <v>1.685265735749965</v>
+        <v>0.8356658715933065</v>
       </c>
       <c r="L16">
-        <v>0.3301544988612903</v>
+        <v>0.3562518451701635</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.144568331528212</v>
+        <v>2.622617826704854</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.964405557145369</v>
+        <v>1.353511465188944</v>
       </c>
       <c r="C17">
-        <v>0.1079034841887605</v>
+        <v>0.0842006627936982</v>
       </c>
       <c r="D17">
-        <v>0.08192532458745916</v>
+        <v>0.1013046523285368</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.492670607747499</v>
+        <v>2.50551705320818</v>
       </c>
       <c r="G17">
-        <v>1.171128040278745</v>
+        <v>1.793033207597901</v>
       </c>
       <c r="H17">
-        <v>0.7625133163002715</v>
+        <v>1.556897188412492</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09677260593695891</v>
+        <v>0.2196826249540251</v>
       </c>
       <c r="K17">
-        <v>1.61391336550966</v>
+        <v>0.8174104961321405</v>
       </c>
       <c r="L17">
-        <v>0.318570524867468</v>
+        <v>0.3538887990534505</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.164687210934424</v>
+        <v>2.63111073191655</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.916916081209195</v>
+        <v>1.342094359568364</v>
       </c>
       <c r="C18">
-        <v>0.1063014503491857</v>
+        <v>0.08367501319278148</v>
       </c>
       <c r="D18">
-        <v>0.0801737694380904</v>
+        <v>0.1009275393200397</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.477888580722805</v>
+        <v>2.504826773868217</v>
       </c>
       <c r="G18">
-        <v>1.158871674364391</v>
+        <v>1.792241960126745</v>
       </c>
       <c r="H18">
-        <v>0.7586471724859791</v>
+        <v>1.557671693527865</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09637823315501137</v>
+        <v>0.2198100631621926</v>
       </c>
       <c r="K18">
-        <v>1.573024846401808</v>
+        <v>0.8069426739301662</v>
       </c>
       <c r="L18">
-        <v>0.3119447009535179</v>
+        <v>0.3525438580609404</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.176437452870772</v>
+        <v>2.636068671306369</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.900870658916517</v>
+        <v>1.338238634954848</v>
       </c>
       <c r="C19">
-        <v>0.1057594571183813</v>
+        <v>0.0834967253721004</v>
       </c>
       <c r="D19">
-        <v>0.07958170951285837</v>
+        <v>0.1008004154922517</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.472930746525634</v>
+        <v>2.504611006236686</v>
       </c>
       <c r="G19">
-        <v>1.154763860991139</v>
+        <v>1.791988331121942</v>
       </c>
       <c r="H19">
-        <v>0.7573608012942117</v>
+        <v>1.55794356123937</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09624700429188948</v>
+        <v>0.2198543794971748</v>
       </c>
       <c r="K19">
-        <v>1.559205717222397</v>
+        <v>0.803403989525691</v>
       </c>
       <c r="L19">
-        <v>0.3097074822181156</v>
+        <v>0.3520909298178196</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.180446107063439</v>
+        <v>2.6377598880024</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.973211078104327</v>
+        <v>1.35562921863027</v>
       </c>
       <c r="C20">
-        <v>0.1082001971737512</v>
+        <v>0.08429780059508118</v>
       </c>
       <c r="D20">
-        <v>0.08224997336674278</v>
+        <v>0.1013747132056224</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.495429054153973</v>
+        <v>2.50565333321228</v>
       </c>
       <c r="G20">
-        <v>1.173416594845548</v>
+        <v>1.79318642995932</v>
       </c>
       <c r="H20">
-        <v>0.76323971251513</v>
+        <v>1.556758420151922</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09684669657919898</v>
+        <v>0.2196595936082844</v>
       </c>
       <c r="K20">
-        <v>1.621493031347399</v>
+        <v>0.8193504836875434</v>
       </c>
       <c r="L20">
-        <v>0.3197997895098581</v>
+        <v>0.3541388783403221</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.162526959229467</v>
+        <v>2.630199087310004</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.218782200890132</v>
+        <v>1.414746133491008</v>
       </c>
       <c r="C21">
-        <v>0.1164362762584901</v>
+        <v>0.08696761604753789</v>
       </c>
       <c r="D21">
-        <v>0.09128772420238818</v>
+        <v>0.1033430335448031</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.574452189530433</v>
+        <v>2.510403450919412</v>
       </c>
       <c r="G21">
-        <v>1.239153676031023</v>
+        <v>1.798204961578847</v>
       </c>
       <c r="H21">
-        <v>0.7846329880371883</v>
+        <v>1.55344625660787</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0990271393698805</v>
+        <v>0.2190862864889525</v>
       </c>
       <c r="K21">
-        <v>1.832655909350905</v>
+        <v>0.8733121819968801</v>
       </c>
       <c r="L21">
-        <v>0.3541639382723645</v>
+        <v>0.3611893694408082</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.104484297381383</v>
+        <v>2.605668707572676</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.381366707581492</v>
+        <v>1.453891461263538</v>
       </c>
       <c r="C22">
-        <v>0.1218526687590895</v>
+        <v>0.08869634185438713</v>
       </c>
       <c r="D22">
-        <v>0.09725371345932388</v>
+        <v>0.1046580872543501</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.6288473717931</v>
+        <v>2.514437430429012</v>
       </c>
       <c r="G22">
-        <v>1.284582308768506</v>
+        <v>1.802225178287841</v>
       </c>
       <c r="H22">
-        <v>0.7999193207985513</v>
+        <v>1.551780261115994</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1005825131169189</v>
+        <v>0.2187719584732477</v>
       </c>
       <c r="K22">
-        <v>1.972248350702131</v>
+        <v>0.9088631633772479</v>
       </c>
       <c r="L22">
-        <v>0.3769944255152211</v>
+        <v>0.3659231768572653</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.068237274561895</v>
+        <v>2.590287594866517</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.294386826564278</v>
+        <v>1.432952479928019</v>
       </c>
       <c r="C23">
-        <v>0.1189582784399477</v>
+        <v>0.08777516563688437</v>
       </c>
       <c r="D23">
-        <v>0.0940637882355162</v>
+        <v>0.1039536132343102</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.599551327278064</v>
+        <v>2.512199413455761</v>
       </c>
       <c r="G23">
-        <v>1.260098535096887</v>
+        <v>1.800011763716043</v>
       </c>
       <c r="H23">
-        <v>0.7916358900776856</v>
+        <v>1.552623834108914</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0997399927598579</v>
+        <v>0.2189342057673684</v>
       </c>
       <c r="K23">
-        <v>1.89758816650189</v>
+        <v>0.8898630913687953</v>
       </c>
       <c r="L23">
-        <v>0.364773223275094</v>
+        <v>0.3633851697724566</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.087423598668842</v>
+        <v>2.598437203457266</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.969229539706703</v>
+        <v>1.354671618996861</v>
       </c>
       <c r="C24">
-        <v>0.1080660471225414</v>
+        <v>0.08425389098990621</v>
       </c>
       <c r="D24">
-        <v>0.0821031837990418</v>
+        <v>0.101343029084056</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.494181110941028</v>
+        <v>2.505591396668777</v>
       </c>
       <c r="G24">
-        <v>1.172381180027728</v>
+        <v>1.793116900468306</v>
       </c>
       <c r="H24">
-        <v>0.7629108968164928</v>
+        <v>1.55682098159059</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09681315848083472</v>
+        <v>0.2196699847385553</v>
       </c>
       <c r="K24">
-        <v>1.618065852986632</v>
+        <v>0.8184733298229787</v>
       </c>
       <c r="L24">
-        <v>0.3192439336525723</v>
+        <v>0.3540257751074876</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.163503038121164</v>
+        <v>2.630611007414252</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.626120834069724</v>
+        <v>1.272437345636916</v>
       </c>
       <c r="C25">
-        <v>0.09641651219148173</v>
+        <v>0.08038619035752959</v>
       </c>
       <c r="D25">
-        <v>0.06942428518011212</v>
+        <v>0.09865164118435388</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.391120478786121</v>
+        <v>2.502458616691271</v>
       </c>
       <c r="G25">
-        <v>1.08721496982497</v>
+        <v>1.788857039828684</v>
       </c>
       <c r="H25">
-        <v>0.7370137991299117</v>
+        <v>1.563492462878884</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09417191607949249</v>
+        <v>0.2207235640227729</v>
       </c>
       <c r="K25">
-        <v>1.322230587297014</v>
+        <v>0.7426997983484114</v>
       </c>
       <c r="L25">
-        <v>0.2715257393631134</v>
+        <v>0.3444742231896214</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.252339526677105</v>
+        <v>2.668108162103607</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.213789594805377</v>
+        <v>1.378640102482223</v>
       </c>
       <c r="C2">
-        <v>0.07747796966823017</v>
+        <v>0.08787824504074138</v>
       </c>
       <c r="D2">
-        <v>0.09677830275133914</v>
+        <v>0.06024578839860339</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.503589715813845</v>
+        <v>1.323122436967097</v>
       </c>
       <c r="G2">
-        <v>1.788449332019695</v>
+        <v>1.031480407338435</v>
       </c>
       <c r="H2">
-        <v>1.570252067700395</v>
+        <v>0.7218004276362109</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2217237369403904</v>
+        <v>0.09262614438176087</v>
       </c>
       <c r="K2">
-        <v>0.6879678976690116</v>
+        <v>1.108103878135381</v>
       </c>
       <c r="L2">
-        <v>0.3379112669186384</v>
+        <v>0.2373764358030144</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.698121543173322</v>
+        <v>1.323115021716582</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.175233221520443</v>
+        <v>1.213496964448893</v>
       </c>
       <c r="C3">
-        <v>0.07546900259902145</v>
+        <v>0.0820957391006516</v>
       </c>
       <c r="D3">
-        <v>0.09557695401960586</v>
+        <v>0.05410778459140175</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.506502169072846</v>
+        <v>1.281403140778451</v>
       </c>
       <c r="G3">
-        <v>1.789873699694411</v>
+        <v>0.9975372452055353</v>
       </c>
       <c r="H3">
-        <v>1.57598740455569</v>
+        <v>0.7136600004089928</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2225420270327803</v>
+        <v>0.0918072183993992</v>
       </c>
       <c r="K3">
-        <v>0.6515379606852321</v>
+        <v>0.9647607082501111</v>
       </c>
       <c r="L3">
-        <v>0.3337576971068188</v>
+        <v>0.2147520366958418</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.719963048001844</v>
+        <v>1.374220617474428</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.152148396342426</v>
+        <v>1.113178290919279</v>
       </c>
       <c r="C4">
-        <v>0.07421664028713337</v>
+        <v>0.07854111424158816</v>
       </c>
       <c r="D4">
-        <v>0.09487322769435735</v>
+        <v>0.05037499111338661</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.509349661701179</v>
+        <v>1.25777132969553</v>
       </c>
       <c r="G4">
-        <v>1.791586846042222</v>
+        <v>0.97842650167334</v>
       </c>
       <c r="H4">
-        <v>1.580079002222845</v>
+        <v>0.7096608973859588</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2231139104880171</v>
+        <v>0.09141103603791123</v>
       </c>
       <c r="K4">
-        <v>0.6294976425329537</v>
+        <v>0.8774615229886535</v>
       </c>
       <c r="L4">
-        <v>0.3313529988256718</v>
+        <v>0.2010876050402572</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.734114622693884</v>
+        <v>1.407085650968721</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.14288979695786</v>
+        <v>1.072543153931406</v>
       </c>
       <c r="C5">
-        <v>0.07370154841981247</v>
+        <v>0.07709071216159202</v>
       </c>
       <c r="D5">
-        <v>0.09459502656767427</v>
+        <v>0.04886226961696138</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.510776584822196</v>
+        <v>1.248616717822983</v>
       </c>
       <c r="G5">
-        <v>1.792495858416586</v>
+        <v>0.9710519248062752</v>
       </c>
       <c r="H5">
-        <v>1.581889842491208</v>
+        <v>0.7082725919748469</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2233644484304449</v>
+        <v>0.09127555043526314</v>
       </c>
       <c r="K5">
-        <v>0.6205988391944288</v>
+        <v>0.8420441962643963</v>
       </c>
       <c r="L5">
-        <v>0.3304097872146912</v>
+        <v>0.1955723847825439</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.740067796421076</v>
+        <v>1.420843115603407</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.141361408464576</v>
+        <v>1.065809817650944</v>
       </c>
       <c r="C6">
-        <v>0.07361573114922493</v>
+        <v>0.07684973842635401</v>
       </c>
       <c r="D6">
-        <v>0.09454935065831194</v>
+        <v>0.04861157455432874</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.511029628834095</v>
+        <v>1.247124664343382</v>
       </c>
       <c r="G6">
-        <v>1.792659537300352</v>
+        <v>0.9698517197251135</v>
       </c>
       <c r="H6">
-        <v>1.582199200895644</v>
+        <v>0.7080563639198374</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2234071072625241</v>
+        <v>0.09125459708167583</v>
       </c>
       <c r="K6">
-        <v>0.6191262119927785</v>
+        <v>0.8361720941039437</v>
       </c>
       <c r="L6">
-        <v>0.3302553887640656</v>
+        <v>0.1946596853727982</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.741067568353383</v>
+        <v>1.423149306239175</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.152022928994796</v>
+        <v>1.112629310395789</v>
       </c>
       <c r="C7">
-        <v>0.0742097127915855</v>
+        <v>0.07852156220556594</v>
       </c>
       <c r="D7">
-        <v>0.0948694410026576</v>
+        <v>0.05035455671692546</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.509367826194236</v>
+        <v>1.257645971878915</v>
       </c>
       <c r="G7">
-        <v>1.791598251381146</v>
+        <v>0.9783254006175781</v>
       </c>
       <c r="H7">
-        <v>1.580102842729204</v>
+        <v>0.709641209611334</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2231172184744885</v>
+        <v>0.09140910480797615</v>
       </c>
       <c r="K7">
-        <v>0.6293772943861882</v>
+        <v>0.8769832614788413</v>
       </c>
       <c r="L7">
-        <v>0.3313401295128457</v>
+        <v>0.2010130147186828</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.734194154976706</v>
+        <v>1.407269723779187</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.200373442395573</v>
+        <v>1.321458459618725</v>
       </c>
       <c r="C8">
-        <v>0.07678918661768819</v>
+        <v>0.08588478391575194</v>
       </c>
       <c r="D8">
-        <v>0.09635706795690169</v>
+        <v>0.05812155273176955</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.504374196470593</v>
+        <v>1.308311375734391</v>
       </c>
       <c r="G8">
-        <v>1.788766416899975</v>
+        <v>1.019404046603043</v>
       </c>
       <c r="H8">
-        <v>1.572111368730788</v>
+        <v>0.7187801095566186</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2219914850497204</v>
+        <v>0.09232111654586461</v>
       </c>
       <c r="K8">
-        <v>0.6753390300273452</v>
+        <v>1.058517411172147</v>
       </c>
       <c r="L8">
-        <v>0.3364489570099209</v>
+        <v>0.229525971780788</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.705498749003766</v>
+        <v>1.34042226698498</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.299843253204529</v>
+        <v>1.740808404129496</v>
       </c>
       <c r="C9">
-        <v>0.08169837629115762</v>
+        <v>0.1003316699819834</v>
       </c>
       <c r="D9">
-        <v>0.09954149828890735</v>
+        <v>0.07366863110431154</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.502980041364737</v>
+        <v>1.424533699541257</v>
       </c>
       <c r="G9">
-        <v>1.789867860352075</v>
+        <v>1.114746863028969</v>
       </c>
       <c r="H9">
-        <v>1.560958421888117</v>
+        <v>0.7451054804555923</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2203338622012829</v>
+        <v>0.09499680890728612</v>
       </c>
       <c r="K9">
-        <v>0.7680597200325963</v>
+        <v>1.421234079490574</v>
       </c>
       <c r="L9">
-        <v>0.3476188407624932</v>
+        <v>0.2874331544412172</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.655103857766044</v>
+        <v>1.221552192514025</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.375745685506843</v>
+        <v>2.056814167321704</v>
       </c>
       <c r="C10">
-        <v>0.08521507945158646</v>
+        <v>0.1110122805113534</v>
       </c>
       <c r="D10">
-        <v>0.1020418581564186</v>
+        <v>0.08533034113767002</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.507070656217394</v>
+        <v>1.521885336088474</v>
       </c>
       <c r="G10">
-        <v>1.794738099603421</v>
+        <v>1.195387953522129</v>
       </c>
       <c r="H10">
-        <v>1.555513188041459</v>
+        <v>0.770280995475801</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2194498624778696</v>
+        <v>0.09756473998380244</v>
       </c>
       <c r="K10">
-        <v>0.8377532890818316</v>
+        <v>1.693428836267174</v>
       </c>
       <c r="L10">
-        <v>0.3565234096262202</v>
+        <v>0.3314814591785478</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.621658626450021</v>
+        <v>1.142297122870332</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.410885710874368</v>
+        <v>2.202752315695193</v>
       </c>
       <c r="C11">
-        <v>0.08679555742633482</v>
+        <v>0.1159007832820222</v>
       </c>
       <c r="D11">
-        <v>0.1032138146360495</v>
+        <v>0.09069874303661862</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.510041460190152</v>
+        <v>1.569175469627893</v>
       </c>
       <c r="G11">
-        <v>1.797836622028129</v>
+        <v>1.234754154863793</v>
       </c>
       <c r="H11">
-        <v>1.553631804114573</v>
+        <v>0.7831724437848351</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2191199154045762</v>
+        <v>0.09887840194878095</v>
       </c>
       <c r="K11">
-        <v>0.8697989499856931</v>
+        <v>1.81888429941904</v>
       </c>
       <c r="L11">
-        <v>0.3607251577979014</v>
+        <v>0.3519162225644408</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.607220311314286</v>
+        <v>1.10814864822337</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.424279848419644</v>
+        <v>2.258370777153061</v>
       </c>
       <c r="C12">
-        <v>0.08739127871940156</v>
+        <v>0.1177576003357572</v>
       </c>
       <c r="D12">
-        <v>0.1036625268964073</v>
+        <v>0.09274172713680429</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.511325917779558</v>
+        <v>1.587551581832088</v>
       </c>
       <c r="G12">
-        <v>1.799136973482533</v>
+        <v>1.250081218651175</v>
       </c>
       <c r="H12">
-        <v>1.553004929649859</v>
+        <v>0.7882765811292529</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.219005329190864</v>
+        <v>0.09939809877323569</v>
       </c>
       <c r="K12">
-        <v>0.8819826834128719</v>
+        <v>1.866660468700303</v>
       </c>
       <c r="L12">
-        <v>0.3623378775581614</v>
+        <v>0.3597176174206282</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.601864500842524</v>
+        <v>1.095505543989908</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.421391304531937</v>
+        <v>2.246375883084568</v>
       </c>
       <c r="C13">
-        <v>0.08726310270507298</v>
+        <v>0.1173574274488089</v>
       </c>
       <c r="D13">
-        <v>0.1035656707203216</v>
+        <v>0.09230126916721559</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.511042196095559</v>
+        <v>1.583572516804438</v>
       </c>
       <c r="G13">
-        <v>1.798851270310095</v>
+        <v>1.246761009393893</v>
       </c>
       <c r="H13">
-        <v>1.553136134233895</v>
+        <v>0.7871671610123911</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.219029547091786</v>
+        <v>0.09928516146002409</v>
       </c>
       <c r="K13">
-        <v>0.8793565371879879</v>
+        <v>1.856358482707833</v>
       </c>
       <c r="L13">
-        <v>0.3619895901391601</v>
+        <v>0.3580345344519742</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.603013002992007</v>
+        <v>1.098215406510086</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.411985906865596</v>
+        <v>2.207320724183489</v>
       </c>
       <c r="C14">
-        <v>0.0868446233065896</v>
+        <v>0.1160534233423718</v>
       </c>
       <c r="D14">
-        <v>0.1032506321766249</v>
+        <v>0.09086661261648032</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.510143937854508</v>
+        <v>1.570677678199701</v>
       </c>
       <c r="G14">
-        <v>1.797941057113306</v>
+        <v>1.236006499427845</v>
       </c>
       <c r="H14">
-        <v>1.553578516458387</v>
+        <v>0.7835878132037095</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2191102808781622</v>
+        <v>0.09892070404414</v>
       </c>
       <c r="K14">
-        <v>0.8708003385910956</v>
+        <v>1.822809278877742</v>
       </c>
       <c r="L14">
-        <v>0.3608574047594715</v>
+        <v>0.3525567448100162</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.606777447220708</v>
+        <v>1.107102631121698</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.406236190550146</v>
+        <v>2.183445783615809</v>
       </c>
       <c r="C15">
-        <v>0.08658793173577806</v>
+        <v>0.1152554610003449</v>
       </c>
       <c r="D15">
-        <v>0.1030583010004023</v>
+        <v>0.08998918758172891</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.509614493657367</v>
+        <v>1.56284134012769</v>
       </c>
       <c r="G15">
-        <v>1.797400066387866</v>
+        <v>1.229474803292803</v>
       </c>
       <c r="H15">
-        <v>1.553860628661909</v>
+        <v>0.7814248072609757</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2191610808339064</v>
+        <v>0.09870040075536934</v>
       </c>
       <c r="K15">
-        <v>0.8655657550492322</v>
+        <v>1.802295502905338</v>
       </c>
       <c r="L15">
-        <v>0.3601667194749325</v>
+        <v>0.3492098596652227</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.609097822236187</v>
+        <v>1.112584285046466</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.373461460224689</v>
+        <v>2.047324140031094</v>
       </c>
       <c r="C16">
-        <v>0.08511140356143443</v>
+        <v>0.1106935189193905</v>
       </c>
       <c r="D16">
-        <v>0.1019659588058559</v>
+        <v>0.08498086070099475</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.506898831096564</v>
+        <v>1.518858311790225</v>
       </c>
       <c r="G16">
-        <v>1.794553375171873</v>
+        <v>1.192872117223445</v>
       </c>
       <c r="H16">
-        <v>1.555648119506714</v>
+        <v>0.7694687619217433</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2194728759422233</v>
+        <v>0.09748192734014793</v>
       </c>
       <c r="K16">
-        <v>0.8356658715933065</v>
+        <v>1.685265735749965</v>
       </c>
       <c r="L16">
-        <v>0.3562518451701635</v>
+        <v>0.3301544988612903</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.622617826704854</v>
+        <v>1.144568331528198</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.353511465188944</v>
+        <v>1.964405557145369</v>
       </c>
       <c r="C17">
-        <v>0.0842006627936982</v>
+        <v>0.1079034841887605</v>
       </c>
       <c r="D17">
-        <v>0.1013046523285368</v>
+        <v>0.08192532458757285</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.50551705320818</v>
+        <v>1.492670607747499</v>
       </c>
       <c r="G17">
-        <v>1.793033207597901</v>
+        <v>1.171128040278788</v>
       </c>
       <c r="H17">
-        <v>1.556897188412492</v>
+        <v>0.7625133163002715</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2196826249540251</v>
+        <v>0.09677260593696957</v>
       </c>
       <c r="K17">
-        <v>0.8174104961321405</v>
+        <v>1.613913365509603</v>
       </c>
       <c r="L17">
-        <v>0.3538887990534505</v>
+        <v>0.318570524867468</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.63111073191655</v>
+        <v>1.164687210934424</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.342094359568364</v>
+        <v>1.916916081209109</v>
       </c>
       <c r="C18">
-        <v>0.08367501319278148</v>
+        <v>0.1063014503491999</v>
       </c>
       <c r="D18">
-        <v>0.1009275393200397</v>
+        <v>0.0801737694380833</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.504826773868217</v>
+        <v>1.477888580722805</v>
       </c>
       <c r="G18">
-        <v>1.792241960126745</v>
+        <v>1.158871674364377</v>
       </c>
       <c r="H18">
-        <v>1.557671693527865</v>
+        <v>0.7586471724858654</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2198100631621926</v>
+        <v>0.09637823315500782</v>
       </c>
       <c r="K18">
-        <v>0.8069426739301662</v>
+        <v>1.573024846401808</v>
       </c>
       <c r="L18">
-        <v>0.3525438580609404</v>
+        <v>0.3119447009535747</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.636068671306369</v>
+        <v>1.176437452870765</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.338238634954848</v>
+        <v>1.900870658916517</v>
       </c>
       <c r="C19">
-        <v>0.0834967253721004</v>
+        <v>0.1057594571183813</v>
       </c>
       <c r="D19">
-        <v>0.1008004154922517</v>
+        <v>0.07958170951285837</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.504611006236686</v>
+        <v>1.47293074652562</v>
       </c>
       <c r="G19">
-        <v>1.791988331121942</v>
+        <v>1.15476386099121</v>
       </c>
       <c r="H19">
-        <v>1.55794356123937</v>
+        <v>0.7573608012942117</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2198543794971748</v>
+        <v>0.09624700429192856</v>
       </c>
       <c r="K19">
-        <v>0.803403989525691</v>
+        <v>1.559205717222369</v>
       </c>
       <c r="L19">
-        <v>0.3520909298178196</v>
+        <v>0.3097074822180161</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.6377598880024</v>
+        <v>1.180446107063432</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.35562921863027</v>
+        <v>1.973211078104498</v>
       </c>
       <c r="C20">
-        <v>0.08429780059508118</v>
+        <v>0.1082001971737583</v>
       </c>
       <c r="D20">
-        <v>0.1013747132056224</v>
+        <v>0.08224997336675699</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.50565333321228</v>
+        <v>1.495429054153973</v>
       </c>
       <c r="G20">
-        <v>1.79318642995932</v>
+        <v>1.17341659484552</v>
       </c>
       <c r="H20">
-        <v>1.556758420151922</v>
+        <v>0.7632397125150305</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2196595936082844</v>
+        <v>0.09684669657928779</v>
       </c>
       <c r="K20">
-        <v>0.8193504836875434</v>
+        <v>1.62149303134737</v>
       </c>
       <c r="L20">
-        <v>0.3541388783403221</v>
+        <v>0.3197997895099007</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.630199087310004</v>
+        <v>1.162526959229503</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.414746133491008</v>
+        <v>2.218782200890132</v>
       </c>
       <c r="C21">
-        <v>0.08696761604753789</v>
+        <v>0.1164362762586748</v>
       </c>
       <c r="D21">
-        <v>0.1033430335448031</v>
+        <v>0.09128772420230291</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.510403450919412</v>
+        <v>1.57445218953039</v>
       </c>
       <c r="G21">
-        <v>1.798204961578847</v>
+        <v>1.239153676031023</v>
       </c>
       <c r="H21">
-        <v>1.55344625660787</v>
+        <v>0.7846329880371599</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2190862864889525</v>
+        <v>0.09902713936978813</v>
       </c>
       <c r="K21">
-        <v>0.8733121819968801</v>
+        <v>1.832655909350876</v>
       </c>
       <c r="L21">
-        <v>0.3611893694408082</v>
+        <v>0.3541639382724213</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.605668707572676</v>
+        <v>1.104484297381319</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.453891461263538</v>
+        <v>2.381366707581606</v>
       </c>
       <c r="C22">
-        <v>0.08869634185438713</v>
+        <v>0.1218526687592458</v>
       </c>
       <c r="D22">
-        <v>0.1046580872543501</v>
+        <v>0.09725371345923861</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.514437430429012</v>
+        <v>1.628847371793086</v>
       </c>
       <c r="G22">
-        <v>1.802225178287841</v>
+        <v>1.284582308768506</v>
       </c>
       <c r="H22">
-        <v>1.551780261115994</v>
+        <v>0.7999193207984376</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2187719584732477</v>
+        <v>0.1005825131169544</v>
       </c>
       <c r="K22">
-        <v>0.9088631633772479</v>
+        <v>1.972248350702188</v>
       </c>
       <c r="L22">
-        <v>0.3659231768572653</v>
+        <v>0.3769944255152922</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.590287594866517</v>
+        <v>1.068237274561824</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.432952479928019</v>
+        <v>2.294386826564107</v>
       </c>
       <c r="C23">
-        <v>0.08777516563688437</v>
+        <v>0.1189582784398127</v>
       </c>
       <c r="D23">
-        <v>0.1039536132343102</v>
+        <v>0.0940637882355162</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.512199413455761</v>
+        <v>1.599551327278007</v>
       </c>
       <c r="G23">
-        <v>1.800011763716043</v>
+        <v>1.260098535096873</v>
       </c>
       <c r="H23">
-        <v>1.552623834108914</v>
+        <v>0.7916358900776856</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2189342057673684</v>
+        <v>0.09973999276000001</v>
       </c>
       <c r="K23">
-        <v>0.8898630913687953</v>
+        <v>1.897588166501862</v>
       </c>
       <c r="L23">
-        <v>0.3633851697724566</v>
+        <v>0.3647732232751792</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.598437203457266</v>
+        <v>1.087423598668813</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.354671618996861</v>
+        <v>1.969229539706646</v>
       </c>
       <c r="C24">
-        <v>0.08425389098990621</v>
+        <v>0.1080660471225343</v>
       </c>
       <c r="D24">
-        <v>0.101343029084056</v>
+        <v>0.08210318379893522</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.505591396668777</v>
+        <v>1.494181110941014</v>
       </c>
       <c r="G24">
-        <v>1.793116900468306</v>
+        <v>1.172381180027656</v>
       </c>
       <c r="H24">
-        <v>1.55682098159059</v>
+        <v>0.7629108968164786</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2196699847385553</v>
+        <v>0.09681315848089866</v>
       </c>
       <c r="K24">
-        <v>0.8184733298229787</v>
+        <v>1.618065852986547</v>
       </c>
       <c r="L24">
-        <v>0.3540257751074876</v>
+        <v>0.3192439336525439</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.630611007414252</v>
+        <v>1.163503038121178</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.272437345636916</v>
+        <v>1.626120834069667</v>
       </c>
       <c r="C25">
-        <v>0.08038619035752959</v>
+        <v>0.09641651219135383</v>
       </c>
       <c r="D25">
-        <v>0.09865164118435388</v>
+        <v>0.06942428518016186</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.502458616691271</v>
+        <v>1.391120478786164</v>
       </c>
       <c r="G25">
-        <v>1.788857039828684</v>
+        <v>1.087214969824984</v>
       </c>
       <c r="H25">
-        <v>1.563492462878884</v>
+        <v>0.7370137991300254</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2207235640227729</v>
+        <v>0.09417191607947473</v>
       </c>
       <c r="K25">
-        <v>0.7426997983484114</v>
+        <v>1.322230587297156</v>
       </c>
       <c r="L25">
-        <v>0.3444742231896214</v>
+        <v>0.2715257393631276</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.668108162103607</v>
+        <v>1.252339526677169</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.378640102482223</v>
+        <v>2.416275726532888</v>
       </c>
       <c r="C2">
-        <v>0.08787824504074138</v>
+        <v>0.7754069942186561</v>
       </c>
       <c r="D2">
-        <v>0.06024578839860339</v>
+        <v>0.1276866091772959</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.323122436967097</v>
+        <v>1.111873864248778</v>
       </c>
       <c r="G2">
-        <v>1.031480407338435</v>
+        <v>0.7798617980317744</v>
       </c>
       <c r="H2">
-        <v>0.7218004276362109</v>
+        <v>0.0009218620527191579</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0004432907324720681</v>
       </c>
       <c r="J2">
-        <v>0.09262614438176087</v>
+        <v>0.5313898412800313</v>
       </c>
       <c r="K2">
-        <v>1.108103878135381</v>
+        <v>0.4028861328984839</v>
       </c>
       <c r="L2">
-        <v>0.2373764358030144</v>
+        <v>0.1741405492606063</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.323115021716582</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.7947759382892841</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.213496964448893</v>
+        <v>2.103915782269667</v>
       </c>
       <c r="C3">
-        <v>0.0820957391006516</v>
+        <v>0.6756198260561632</v>
       </c>
       <c r="D3">
-        <v>0.05410778459140175</v>
+        <v>0.1150655187051512</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.281403140778451</v>
+        <v>1.038569428188381</v>
       </c>
       <c r="G3">
-        <v>0.9975372452055353</v>
+        <v>0.7229384517187185</v>
       </c>
       <c r="H3">
-        <v>0.7136600004089928</v>
+        <v>0.002232214058192405</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.000700694911112798</v>
       </c>
       <c r="J3">
-        <v>0.0918072183993992</v>
+        <v>0.5102970049688622</v>
       </c>
       <c r="K3">
-        <v>0.9647607082501111</v>
+        <v>0.3972571873332171</v>
       </c>
       <c r="L3">
-        <v>0.2147520366958418</v>
+        <v>0.1584811688561913</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.374220617474428</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6931737849274171</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.113178290919279</v>
+        <v>1.911981956568781</v>
       </c>
       <c r="C4">
-        <v>0.07854111424158816</v>
+        <v>0.6148586680947687</v>
       </c>
       <c r="D4">
-        <v>0.05037499111338661</v>
+        <v>0.1073793427434495</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.25777132969553</v>
+        <v>0.9942074857124936</v>
       </c>
       <c r="G4">
-        <v>0.97842650167334</v>
+        <v>0.6885949816321499</v>
       </c>
       <c r="H4">
-        <v>0.7096608973859588</v>
+        <v>0.003359703357222577</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001182797233632016</v>
       </c>
       <c r="J4">
-        <v>0.09141103603791123</v>
+        <v>0.4977414519826482</v>
       </c>
       <c r="K4">
-        <v>0.8774615229886535</v>
+        <v>0.3940991787766563</v>
       </c>
       <c r="L4">
-        <v>0.2010876050402572</v>
+        <v>0.1488346037954074</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.407085650968721</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6309551052527738</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.072543153931406</v>
+        <v>1.833526433387249</v>
       </c>
       <c r="C5">
-        <v>0.07709071216159202</v>
+        <v>0.5911936129963635</v>
       </c>
       <c r="D5">
-        <v>0.04886226961696138</v>
+        <v>0.1044063415872074</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.248616717822983</v>
+        <v>0.9749161863641831</v>
       </c>
       <c r="G5">
-        <v>0.9710519248062752</v>
+        <v>0.6733986130407033</v>
       </c>
       <c r="H5">
-        <v>0.7082725919748469</v>
+        <v>0.003898277556242058</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001527167013778641</v>
       </c>
       <c r="J5">
-        <v>0.09127555043526314</v>
+        <v>0.4920280420713965</v>
       </c>
       <c r="K5">
-        <v>0.8420441962643963</v>
+        <v>0.3920852637442351</v>
       </c>
       <c r="L5">
-        <v>0.1955723847825439</v>
+        <v>0.1448346637222144</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.420843115603407</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6059124672552514</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.065809817650944</v>
+        <v>1.82026603893479</v>
       </c>
       <c r="C6">
-        <v>0.07684973842635401</v>
+        <v>0.5884741607528099</v>
       </c>
       <c r="D6">
-        <v>0.04861157455432874</v>
+        <v>0.1040915721201046</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.247124664343382</v>
+        <v>0.9700582541228613</v>
       </c>
       <c r="G6">
-        <v>0.9698517197251135</v>
+        <v>0.6692478922361431</v>
       </c>
       <c r="H6">
-        <v>0.7080563639198374</v>
+        <v>0.003994807349572471</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001683392965316166</v>
       </c>
       <c r="J6">
-        <v>0.09125459708167583</v>
+        <v>0.490242394795942</v>
       </c>
       <c r="K6">
-        <v>0.8361720941039437</v>
+        <v>0.3907830478185836</v>
       </c>
       <c r="L6">
-        <v>0.1946596853727982</v>
+        <v>0.1440988320903429</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.423149306239175</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6020975830901492</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.112629310395789</v>
+        <v>1.910294188592445</v>
       </c>
       <c r="C7">
-        <v>0.07852156220556594</v>
+        <v>0.6178337077709841</v>
       </c>
       <c r="D7">
-        <v>0.05035455671692546</v>
+        <v>0.1078261596008261</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.257645971878915</v>
+        <v>0.9894016413009297</v>
       </c>
       <c r="G7">
-        <v>0.9783254006175781</v>
+        <v>0.6839181622791841</v>
       </c>
       <c r="H7">
-        <v>0.709641209611334</v>
+        <v>0.003372914460783139</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001428381816007906</v>
       </c>
       <c r="J7">
-        <v>0.09140910480797615</v>
+        <v>0.4953633504156301</v>
       </c>
       <c r="K7">
-        <v>0.8769832614788413</v>
+        <v>0.3914170265197932</v>
       </c>
       <c r="L7">
-        <v>0.2010130147186828</v>
+        <v>0.1485869583798589</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.407269723779187</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6315523183199403</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.321458459618725</v>
+        <v>2.307741614585439</v>
       </c>
       <c r="C8">
-        <v>0.08588478391575194</v>
+        <v>0.7452843899699531</v>
       </c>
       <c r="D8">
-        <v>0.05812155273176955</v>
+        <v>0.1239686176273338</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.308311375734391</v>
+        <v>1.080434600074767</v>
       </c>
       <c r="G8">
-        <v>1.019404046603043</v>
+        <v>0.7541702828842602</v>
       </c>
       <c r="H8">
-        <v>0.7187801095566186</v>
+        <v>0.001308970664795073</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0007442642144770417</v>
       </c>
       <c r="J8">
-        <v>0.09232111654586461</v>
+        <v>0.5209902877108163</v>
       </c>
       <c r="K8">
-        <v>1.058517411172147</v>
+        <v>0.3973773016627362</v>
       </c>
       <c r="L8">
-        <v>0.229525971780788</v>
+        <v>0.1684890565891166</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.34042226698498</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7609499039590801</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.740808404129496</v>
+        <v>3.088052979701558</v>
       </c>
       <c r="C9">
-        <v>0.1003316699819834</v>
+        <v>0.9939702917310456</v>
       </c>
       <c r="D9">
-        <v>0.07366863110431154</v>
+        <v>0.155344104896372</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.424533699541257</v>
+        <v>1.272992885208026</v>
       </c>
       <c r="G9">
-        <v>1.114746863028969</v>
+        <v>0.9055422377320639</v>
       </c>
       <c r="H9">
-        <v>0.7451054804555923</v>
+        <v>1.727943085105821E-05</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001857130718122768</v>
       </c>
       <c r="J9">
-        <v>0.09499680890728612</v>
+        <v>0.578835721777665</v>
       </c>
       <c r="K9">
-        <v>1.421234079490574</v>
+        <v>0.4164303826092137</v>
       </c>
       <c r="L9">
-        <v>0.2874331544412172</v>
+        <v>0.2077539725764765</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.221552192514025</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.014746681464686</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.056814167321704</v>
+        <v>3.671609174377863</v>
       </c>
       <c r="C10">
-        <v>0.1110122805113534</v>
+        <v>1.180623518855896</v>
       </c>
       <c r="D10">
-        <v>0.08533034113767002</v>
+        <v>0.1742817219588488</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.521885336088474</v>
+        <v>1.388020617971293</v>
       </c>
       <c r="G10">
-        <v>1.195387953522129</v>
+        <v>0.9984477532405975</v>
       </c>
       <c r="H10">
-        <v>0.770280995475801</v>
+        <v>0.001126319351658633</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.004784023730179499</v>
       </c>
       <c r="J10">
-        <v>0.09756473998380244</v>
+        <v>0.6124430924651278</v>
       </c>
       <c r="K10">
-        <v>1.693428836267174</v>
+        <v>0.4215831397629231</v>
       </c>
       <c r="L10">
-        <v>0.3314814591785478</v>
+        <v>0.2242102281865073</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.142297122870332</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.186044716845245</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.202752315695193</v>
+        <v>4.020434056096917</v>
       </c>
       <c r="C11">
-        <v>0.1159007832820222</v>
+        <v>1.257850094399657</v>
       </c>
       <c r="D11">
-        <v>0.09069874303661862</v>
+        <v>0.1442239797300289</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.569175469627893</v>
+        <v>1.193017998467738</v>
       </c>
       <c r="G11">
-        <v>1.234754154863793</v>
+        <v>0.8623883483170545</v>
       </c>
       <c r="H11">
-        <v>0.7831724437848351</v>
+        <v>0.01967832315783014</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.006413595529231486</v>
       </c>
       <c r="J11">
-        <v>0.09887840194878095</v>
+        <v>0.5377213309630804</v>
       </c>
       <c r="K11">
-        <v>1.81888429941904</v>
+        <v>0.343080788864718</v>
       </c>
       <c r="L11">
-        <v>0.3519162225644408</v>
+        <v>0.1467787465426049</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.10814864822337</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.11717087593982</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.258370777153061</v>
+        <v>4.196417622329818</v>
       </c>
       <c r="C12">
-        <v>0.1177576003357572</v>
+        <v>1.277755260310073</v>
       </c>
       <c r="D12">
-        <v>0.09274172713680429</v>
+        <v>0.1177905134888562</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.587551581832088</v>
+        <v>1.022680211822419</v>
       </c>
       <c r="G12">
-        <v>1.250081218651175</v>
+        <v>0.7423044256232316</v>
       </c>
       <c r="H12">
-        <v>0.7882765811292529</v>
+        <v>0.05816775249281392</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.006689909501345959</v>
       </c>
       <c r="J12">
-        <v>0.09939809877323569</v>
+        <v>0.4744928355571716</v>
       </c>
       <c r="K12">
-        <v>1.866660468700303</v>
+        <v>0.286058104199121</v>
       </c>
       <c r="L12">
-        <v>0.3597176174206282</v>
+        <v>0.1096960155837152</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.095505543989908</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.02366884422954</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.246375883084568</v>
+        <v>4.246645635939046</v>
       </c>
       <c r="C13">
-        <v>0.1173574274488089</v>
+        <v>1.259717910960831</v>
       </c>
       <c r="D13">
-        <v>0.09230126916721559</v>
+        <v>0.09346775725177281</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.583572516804438</v>
+        <v>0.8547338082193079</v>
       </c>
       <c r="G13">
-        <v>1.246761009393893</v>
+        <v>0.6206058664089227</v>
       </c>
       <c r="H13">
-        <v>0.7871671610123911</v>
+        <v>0.1136070923604251</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.006191336784138635</v>
       </c>
       <c r="J13">
-        <v>0.09928516146002409</v>
+        <v>0.4128072083584726</v>
       </c>
       <c r="K13">
-        <v>1.856358482707833</v>
+        <v>0.2379111371492471</v>
       </c>
       <c r="L13">
-        <v>0.3580345344519742</v>
+        <v>0.1008219373437047</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.098215406510086</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.9080972254527921</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.207320724183489</v>
+        <v>4.22452802842605</v>
       </c>
       <c r="C14">
-        <v>0.1160534233423718</v>
+        <v>1.231064396123941</v>
       </c>
       <c r="D14">
-        <v>0.09086661261648032</v>
+        <v>0.07811675842157229</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.570677678199701</v>
+        <v>0.7398434196845258</v>
       </c>
       <c r="G14">
-        <v>1.236006499427845</v>
+        <v>0.5354224605939493</v>
       </c>
       <c r="H14">
-        <v>0.7835878132037095</v>
+        <v>0.16272600812961</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.005601739085729029</v>
       </c>
       <c r="J14">
-        <v>0.09892070404414</v>
+        <v>0.3706025836664111</v>
       </c>
       <c r="K14">
-        <v>1.822809278877742</v>
+        <v>0.208737578981637</v>
       </c>
       <c r="L14">
-        <v>0.3525567448100162</v>
+        <v>0.1113509327011926</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.107102631121698</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.8186821614160777</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.183445783615809</v>
+        <v>4.191345874278625</v>
       </c>
       <c r="C15">
-        <v>0.1152554610003449</v>
+        <v>1.21745159006656</v>
       </c>
       <c r="D15">
-        <v>0.08998918758172891</v>
+        <v>0.07447662998674787</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.56284134012769</v>
+        <v>0.7099097061090305</v>
       </c>
       <c r="G15">
-        <v>1.229474803292803</v>
+        <v>0.5123021928406075</v>
       </c>
       <c r="H15">
-        <v>0.7814248072609757</v>
+        <v>0.1751491041480335</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.005409526948644938</v>
       </c>
       <c r="J15">
-        <v>0.09870040075536934</v>
+        <v>0.3596449575571512</v>
       </c>
       <c r="K15">
-        <v>1.802295502905338</v>
+        <v>0.2021789204142515</v>
       </c>
       <c r="L15">
-        <v>0.3492098596652227</v>
+        <v>0.115771432165122</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.112584285046466</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.7924479357080614</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.047324140031094</v>
+        <v>3.925837243755552</v>
       </c>
       <c r="C16">
-        <v>0.1106935189193905</v>
+        <v>1.142644206623743</v>
       </c>
       <c r="D16">
-        <v>0.08498086070099475</v>
+        <v>0.07212957711163881</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.518858311790225</v>
+        <v>0.6951897906787892</v>
       </c>
       <c r="G16">
-        <v>1.192872117223445</v>
+        <v>0.4963333316040774</v>
       </c>
       <c r="H16">
-        <v>0.7694687619217433</v>
+        <v>0.1620827599465855</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004176684796857622</v>
       </c>
       <c r="J16">
-        <v>0.09748192734014793</v>
+        <v>0.357009166458468</v>
       </c>
       <c r="K16">
-        <v>1.685265735749965</v>
+        <v>0.2084517245637016</v>
       </c>
       <c r="L16">
-        <v>0.3301544988612903</v>
+        <v>0.1107714337450325</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.144568331528198</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.7463578759206086</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.964405557145369</v>
+        <v>3.734694303152537</v>
       </c>
       <c r="C17">
-        <v>0.1079034841887605</v>
+        <v>1.100794044569284</v>
       </c>
       <c r="D17">
-        <v>0.08192532458757285</v>
+        <v>0.07808355741864403</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.492670607747499</v>
+        <v>0.7432180973508409</v>
       </c>
       <c r="G17">
-        <v>1.171128040278788</v>
+        <v>0.5282332792673259</v>
       </c>
       <c r="H17">
-        <v>0.7625133163002715</v>
+        <v>0.1241903784144824</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003619047774375161</v>
       </c>
       <c r="J17">
-        <v>0.09677260593696957</v>
+        <v>0.3769506678817578</v>
       </c>
       <c r="K17">
-        <v>1.613913365509603</v>
+        <v>0.2281151361850213</v>
       </c>
       <c r="L17">
-        <v>0.318570524867468</v>
+        <v>0.09855287166406512</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.164687210934424</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.7576952227019902</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.916916081209109</v>
+        <v>3.587188534058157</v>
       </c>
       <c r="C18">
-        <v>0.1063014503491999</v>
+        <v>1.079288623612968</v>
       </c>
       <c r="D18">
-        <v>0.0801737694380833</v>
+        <v>0.09349461961943462</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.477888580722805</v>
+        <v>0.8597638342418747</v>
       </c>
       <c r="G18">
-        <v>1.158871674364377</v>
+        <v>0.611790981554023</v>
       </c>
       <c r="H18">
-        <v>0.7586471724858654</v>
+        <v>0.07134445377021592</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003200900499107817</v>
       </c>
       <c r="J18">
-        <v>0.09637823315500782</v>
+        <v>0.4219100090935513</v>
       </c>
       <c r="K18">
-        <v>1.573024846401808</v>
+        <v>0.2661290120275055</v>
       </c>
       <c r="L18">
-        <v>0.3119447009535747</v>
+        <v>0.0938903106984868</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.176437452870765</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8206878411714342</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.900870658916517</v>
+        <v>3.485530764183693</v>
       </c>
       <c r="C19">
-        <v>0.1057594571183813</v>
+        <v>1.082163918374079</v>
       </c>
       <c r="D19">
-        <v>0.07958170951285837</v>
+        <v>0.118976363593184</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.47293074652562</v>
+        <v>1.026922909950542</v>
       </c>
       <c r="G19">
-        <v>1.15476386099121</v>
+        <v>0.7311954781710455</v>
       </c>
       <c r="H19">
-        <v>0.7573608012942117</v>
+        <v>0.02616662069250708</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003408182970108697</v>
       </c>
       <c r="J19">
-        <v>0.09624700429192856</v>
+        <v>0.4835610469824587</v>
       </c>
       <c r="K19">
-        <v>1.559205717222369</v>
+        <v>0.3179065500523883</v>
       </c>
       <c r="L19">
-        <v>0.3097074822180161</v>
+        <v>0.1181167579732119</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.180446107063432</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9255962514426415</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.973211078104498</v>
+        <v>3.516505904520841</v>
       </c>
       <c r="C20">
-        <v>0.1082001971737583</v>
+        <v>1.141859837128891</v>
       </c>
       <c r="D20">
-        <v>0.08224997336675699</v>
+        <v>0.1706069715599199</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.495429054153973</v>
+        <v>1.342183451410079</v>
       </c>
       <c r="G20">
-        <v>1.17341659484552</v>
+        <v>0.9589647464436553</v>
       </c>
       <c r="H20">
-        <v>0.7632397125150305</v>
+        <v>0.0006732031323331</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.004556972631746703</v>
       </c>
       <c r="J20">
-        <v>0.09684669657928779</v>
+        <v>0.5959089917836735</v>
       </c>
       <c r="K20">
-        <v>1.62149303134737</v>
+        <v>0.4116129359641718</v>
       </c>
       <c r="L20">
-        <v>0.3197997895099007</v>
+        <v>0.2187432672447258</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.162526959229503</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.143214916793752</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.218782200890132</v>
+        <v>3.951083386031996</v>
       </c>
       <c r="C21">
-        <v>0.1164362762586748</v>
+        <v>1.286910170672911</v>
       </c>
       <c r="D21">
-        <v>0.09128772420230291</v>
+        <v>0.1925586008569979</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.57445218953039</v>
+        <v>1.479967478107952</v>
       </c>
       <c r="G21">
-        <v>1.239153676031023</v>
+        <v>1.066852484761696</v>
       </c>
       <c r="H21">
-        <v>0.7846329880371599</v>
+        <v>0.002113810691683593</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.007487290288610282</v>
       </c>
       <c r="J21">
-        <v>0.09902713936978813</v>
+        <v>0.6402666920596118</v>
       </c>
       <c r="K21">
-        <v>1.832655909350876</v>
+        <v>0.4328010633388217</v>
       </c>
       <c r="L21">
-        <v>0.3541639382724213</v>
+        <v>0.2508354639704038</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.104484297381319</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.301540497374603</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.381366707581606</v>
+        <v>4.241458170471731</v>
       </c>
       <c r="C22">
-        <v>0.1218526687592458</v>
+        <v>1.377510145073643</v>
       </c>
       <c r="D22">
-        <v>0.09725371345923861</v>
+        <v>0.2039065130239379</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.628847371793086</v>
+        <v>1.562510069068736</v>
       </c>
       <c r="G22">
-        <v>1.284582308768506</v>
+        <v>1.133950959263501</v>
       </c>
       <c r="H22">
-        <v>0.7999193207984376</v>
+        <v>0.003553841368036825</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.009596749135150517</v>
       </c>
       <c r="J22">
-        <v>0.1005825131169544</v>
+        <v>0.6675999650496465</v>
       </c>
       <c r="K22">
-        <v>1.972248350702188</v>
+        <v>0.4456983137846251</v>
       </c>
       <c r="L22">
-        <v>0.3769944255152922</v>
+        <v>0.265830804428262</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.068237274561824</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.395484520631896</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.294386826564107</v>
+        <v>4.087213826801417</v>
       </c>
       <c r="C23">
-        <v>0.1189582784398127</v>
+        <v>1.325018157112538</v>
       </c>
       <c r="D23">
-        <v>0.0940637882355162</v>
+        <v>0.1972440952176271</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.599551327278007</v>
+        <v>1.523698391556536</v>
       </c>
       <c r="G23">
-        <v>1.260098535096873</v>
+        <v>1.103307531473945</v>
       </c>
       <c r="H23">
-        <v>0.7916358900776856</v>
+        <v>0.002746488976467454</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.008163621796960285</v>
       </c>
       <c r="J23">
-        <v>0.09973999276000001</v>
+        <v>0.6556373498081314</v>
       </c>
       <c r="K23">
-        <v>1.897588166501862</v>
+        <v>0.4418340562119525</v>
       </c>
       <c r="L23">
-        <v>0.3647732232751792</v>
+        <v>0.2580499719246632</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.087423598668813</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.34415853327549</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.969229539706646</v>
+        <v>3.503261338721416</v>
       </c>
       <c r="C24">
-        <v>0.1080660471225343</v>
+        <v>1.134604479561574</v>
       </c>
       <c r="D24">
-        <v>0.08210318379893522</v>
+        <v>0.1732140024746656</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.494181110941014</v>
+        <v>1.37096283696313</v>
       </c>
       <c r="G24">
-        <v>1.172381180027656</v>
+        <v>0.9815565458760034</v>
       </c>
       <c r="H24">
-        <v>0.7629108968164786</v>
+        <v>0.0006032159178983587</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.004120644802304341</v>
       </c>
       <c r="J24">
-        <v>0.09681315848089866</v>
+        <v>0.607510398508893</v>
       </c>
       <c r="K24">
-        <v>1.618065852986547</v>
+        <v>0.4234780004047138</v>
       </c>
       <c r="L24">
-        <v>0.3192439336525439</v>
+        <v>0.2284184249159367</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.163503038121178</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.152600812733724</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.626120834069667</v>
+        <v>2.875651022216971</v>
       </c>
       <c r="C25">
-        <v>0.09641651219135383</v>
+        <v>0.9321744274292314</v>
       </c>
       <c r="D25">
-        <v>0.06942428518016186</v>
+        <v>0.1476727269686791</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.391120478786164</v>
+        <v>1.211933235505924</v>
       </c>
       <c r="G25">
-        <v>1.087214969824984</v>
+        <v>0.8557801484814576</v>
       </c>
       <c r="H25">
-        <v>0.7370137991300254</v>
+        <v>4.309365519561403E-05</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001611507941339241</v>
       </c>
       <c r="J25">
-        <v>0.09417191607947473</v>
+        <v>0.5586242680508207</v>
       </c>
       <c r="K25">
-        <v>1.322230587297156</v>
+        <v>0.4062071571985797</v>
       </c>
       <c r="L25">
-        <v>0.2715257393631276</v>
+        <v>0.1967704241354014</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.252339526677169</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.947556305511192</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.416275726532888</v>
+        <v>2.409683682111449</v>
       </c>
       <c r="C2">
-        <v>0.7754069942186561</v>
+        <v>0.8460849977726639</v>
       </c>
       <c r="D2">
-        <v>0.1276866091772959</v>
+        <v>0.1408911568919677</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.111873864248778</v>
+        <v>1.004798106801061</v>
       </c>
       <c r="G2">
-        <v>0.7798617980317744</v>
+        <v>0.6547241028013957</v>
       </c>
       <c r="H2">
-        <v>0.0009218620527191579</v>
+        <v>0.0008336960909727242</v>
       </c>
       <c r="I2">
-        <v>0.0004432907324720681</v>
+        <v>0.000574850424612805</v>
       </c>
       <c r="J2">
-        <v>0.5313898412800313</v>
+        <v>0.5142355213813801</v>
       </c>
       <c r="K2">
-        <v>0.4028861328984839</v>
+        <v>0.3354555948513926</v>
       </c>
       <c r="L2">
-        <v>0.1741405492606063</v>
+        <v>0.1740459893768787</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08711945145374145</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1714726798503889</v>
       </c>
       <c r="O2">
-        <v>0.7947759382892841</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8178900099513058</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.103915782269667</v>
+        <v>2.100994988427601</v>
       </c>
       <c r="C3">
-        <v>0.6756198260561632</v>
+        <v>0.7315968204567866</v>
       </c>
       <c r="D3">
-        <v>0.1150655187051512</v>
+        <v>0.126680417932846</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.038569428188381</v>
+        <v>0.9474547759098471</v>
       </c>
       <c r="G3">
-        <v>0.7229384517187185</v>
+        <v>0.6146255271336543</v>
       </c>
       <c r="H3">
-        <v>0.002232214058192405</v>
+        <v>0.002001926694080836</v>
       </c>
       <c r="I3">
-        <v>0.000700694911112798</v>
+        <v>0.0005752866287354053</v>
       </c>
       <c r="J3">
-        <v>0.5102970049688622</v>
+        <v>0.4966871974203002</v>
       </c>
       <c r="K3">
-        <v>0.3972571873332171</v>
+        <v>0.3370560979017618</v>
       </c>
       <c r="L3">
-        <v>0.1584811688561913</v>
+        <v>0.1789456631114668</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.08430212770769785</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1572811579124576</v>
       </c>
       <c r="O3">
-        <v>0.6931737849274171</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.712278935665644</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.911981956568781</v>
+        <v>1.91111346925598</v>
       </c>
       <c r="C4">
-        <v>0.6148586680947687</v>
+        <v>0.6619937273353287</v>
       </c>
       <c r="D4">
-        <v>0.1073793427434495</v>
+        <v>0.1180435821045336</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9942074857124936</v>
+        <v>0.9126250876679478</v>
       </c>
       <c r="G4">
-        <v>0.6885949816321499</v>
+        <v>0.5905426521925392</v>
       </c>
       <c r="H4">
-        <v>0.003359703357222577</v>
+        <v>0.003005514603171222</v>
       </c>
       <c r="I4">
-        <v>0.001182797233632016</v>
+        <v>0.0008276047552331356</v>
       </c>
       <c r="J4">
-        <v>0.4977414519826482</v>
+        <v>0.4859278810119179</v>
       </c>
       <c r="K4">
-        <v>0.3940991787766563</v>
+        <v>0.338211499633946</v>
       </c>
       <c r="L4">
-        <v>0.1488346037954074</v>
+        <v>0.1819656075699854</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.08321405416353045</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1485175112739014</v>
       </c>
       <c r="O4">
-        <v>0.6309551052527738</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6476041574305782</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.833526433387249</v>
+        <v>1.833461472440888</v>
       </c>
       <c r="C5">
-        <v>0.5911936129963635</v>
+        <v>0.6347384488837804</v>
       </c>
       <c r="D5">
-        <v>0.1044063415872074</v>
+        <v>0.1146842646661526</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9749161863641831</v>
+        <v>0.8973289350590576</v>
       </c>
       <c r="G5">
-        <v>0.6733986130407033</v>
+        <v>0.579711316200175</v>
       </c>
       <c r="H5">
-        <v>0.003898277556242058</v>
+        <v>0.0034846437630498</v>
       </c>
       <c r="I5">
-        <v>0.001527167013778641</v>
+        <v>0.001073012429315234</v>
       </c>
       <c r="J5">
-        <v>0.4920280420713965</v>
+        <v>0.480936104169146</v>
       </c>
       <c r="K5">
-        <v>0.3920852637442351</v>
+        <v>0.338078203390026</v>
       </c>
       <c r="L5">
-        <v>0.1448346637222144</v>
+        <v>0.1828905140191033</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.08275299647366907</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1448788607114366</v>
       </c>
       <c r="O5">
-        <v>0.6059124672552514</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6215432290469494</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.82026603893479</v>
+        <v>1.820347869701607</v>
       </c>
       <c r="C6">
-        <v>0.5884741607528099</v>
+        <v>0.6313845901337061</v>
       </c>
       <c r="D6">
-        <v>0.1040915721201046</v>
+        <v>0.1142990701629216</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9700582541228613</v>
+        <v>0.8933446312330418</v>
       </c>
       <c r="G6">
-        <v>0.6692478922361431</v>
+        <v>0.5765304671714091</v>
       </c>
       <c r="H6">
-        <v>0.003994807349572471</v>
+        <v>0.003570407268966069</v>
       </c>
       <c r="I6">
-        <v>0.001683392965316166</v>
+        <v>0.001227521272806342</v>
       </c>
       <c r="J6">
-        <v>0.490242394795942</v>
+        <v>0.4793641240350581</v>
       </c>
       <c r="K6">
-        <v>0.3907830478185836</v>
+        <v>0.3372738264148119</v>
       </c>
       <c r="L6">
-        <v>0.1440988320903429</v>
+        <v>0.1826690743129333</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.08247066545597193</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1442094794519235</v>
       </c>
       <c r="O6">
-        <v>0.6020975830901492</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6175351561677331</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.910294188592445</v>
+        <v>1.909425196349162</v>
       </c>
       <c r="C7">
-        <v>0.6178337077709841</v>
+        <v>0.6638149249071148</v>
       </c>
       <c r="D7">
-        <v>0.1078261596008261</v>
+        <v>0.1187950325866751</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9894016413009297</v>
+        <v>0.9061284905955489</v>
       </c>
       <c r="G7">
-        <v>0.6839181622791841</v>
+        <v>0.58938575771964</v>
       </c>
       <c r="H7">
-        <v>0.003372914460783139</v>
+        <v>0.003021599662973884</v>
       </c>
       <c r="I7">
-        <v>0.001428381816007906</v>
+        <v>0.001114779119276932</v>
       </c>
       <c r="J7">
-        <v>0.4953633504156301</v>
+        <v>0.477289135338026</v>
       </c>
       <c r="K7">
-        <v>0.3914170265197932</v>
+        <v>0.3351514842790806</v>
       </c>
       <c r="L7">
-        <v>0.1485869583798589</v>
+        <v>0.1805458434074865</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.08233692760884992</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1482513348183403</v>
       </c>
       <c r="O7">
-        <v>0.6315523183199403</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6481359038418617</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.307741614585439</v>
+        <v>2.302329227237124</v>
       </c>
       <c r="C8">
-        <v>0.7452843899699531</v>
+        <v>0.807363475107735</v>
       </c>
       <c r="D8">
-        <v>0.1239686176273338</v>
+        <v>0.1377040595187822</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.080434600074767</v>
+        <v>0.9720145323134659</v>
       </c>
       <c r="G8">
-        <v>0.7541702828842602</v>
+        <v>0.6451097307718641</v>
       </c>
       <c r="H8">
-        <v>0.001308970664795073</v>
+        <v>0.00118791520329431</v>
       </c>
       <c r="I8">
-        <v>0.0007442642144770417</v>
+        <v>0.0008553755351625725</v>
       </c>
       <c r="J8">
-        <v>0.5209902877108163</v>
+        <v>0.4840863004707074</v>
       </c>
       <c r="K8">
-        <v>0.3973773016627362</v>
+        <v>0.3301970833401597</v>
       </c>
       <c r="L8">
-        <v>0.1684890565891166</v>
+        <v>0.1732265667183235</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08417036026924229</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1662230919677725</v>
       </c>
       <c r="O8">
-        <v>0.7609499039590801</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7826372341324728</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.088052979701558</v>
+        <v>3.072000091145583</v>
       </c>
       <c r="C9">
-        <v>0.9939702917310456</v>
+        <v>1.092859403990246</v>
       </c>
       <c r="D9">
-        <v>0.155344104896372</v>
+        <v>0.1735310698205836</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.272992885208026</v>
+        <v>1.120317276566652</v>
       </c>
       <c r="G9">
-        <v>0.9055422377320639</v>
+        <v>0.7559955056416072</v>
       </c>
       <c r="H9">
-        <v>1.727943085105821E-05</v>
+        <v>1.138919422971618E-05</v>
       </c>
       <c r="I9">
-        <v>0.001857130718122768</v>
+        <v>0.002092873579472077</v>
       </c>
       <c r="J9">
-        <v>0.578835721777665</v>
+        <v>0.5245308281156582</v>
       </c>
       <c r="K9">
-        <v>0.4164303826092137</v>
+        <v>0.3291145154797235</v>
       </c>
       <c r="L9">
-        <v>0.2077539725764765</v>
+        <v>0.1621442860226452</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.09516781820902054</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2016401503115901</v>
       </c>
       <c r="O9">
-        <v>1.014746681464686</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.046497419902416</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.671609174377863</v>
+        <v>3.646308824077153</v>
       </c>
       <c r="C10">
-        <v>1.180623518855896</v>
+        <v>1.298989508816135</v>
       </c>
       <c r="D10">
-        <v>0.1742817219588488</v>
+        <v>0.1971301014218341</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.388020617971293</v>
+        <v>1.193069050362936</v>
       </c>
       <c r="G10">
-        <v>0.9984477532405975</v>
+        <v>0.8403139309029513</v>
       </c>
       <c r="H10">
-        <v>0.001126319351658633</v>
+        <v>0.0009671539826778819</v>
       </c>
       <c r="I10">
-        <v>0.004784023730179499</v>
+        <v>0.004644323168374598</v>
       </c>
       <c r="J10">
-        <v>0.6124430924651278</v>
+        <v>0.5098000631595738</v>
       </c>
       <c r="K10">
-        <v>0.4215831397629231</v>
+        <v>0.3171785128063753</v>
       </c>
       <c r="L10">
-        <v>0.2242102281865073</v>
+        <v>0.1497350097792953</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1016692623133757</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2153153489939754</v>
       </c>
       <c r="O10">
-        <v>1.186044716845245</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.224265362960963</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.020434056096917</v>
+        <v>3.993603149046805</v>
       </c>
       <c r="C11">
-        <v>1.257850094399657</v>
+        <v>1.354418300659745</v>
       </c>
       <c r="D11">
-        <v>0.1442239797300289</v>
+        <v>0.165934093582834</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.193017998467738</v>
+        <v>1.001455207554898</v>
       </c>
       <c r="G11">
-        <v>0.8623883483170545</v>
+        <v>0.7639136690512061</v>
       </c>
       <c r="H11">
-        <v>0.01967832315783014</v>
+        <v>0.01947652508337328</v>
       </c>
       <c r="I11">
-        <v>0.006413595529231486</v>
+        <v>0.006123684393730677</v>
       </c>
       <c r="J11">
-        <v>0.5377213309630804</v>
+        <v>0.3869891171789845</v>
       </c>
       <c r="K11">
-        <v>0.343080788864718</v>
+        <v>0.250954095149087</v>
       </c>
       <c r="L11">
-        <v>0.1467787465426049</v>
+        <v>0.1235600764856155</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07973195527365817</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1396285282930911</v>
       </c>
       <c r="O11">
-        <v>1.11717087593982</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.150966184027041</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.196417622329818</v>
+        <v>4.170598324846424</v>
       </c>
       <c r="C12">
-        <v>1.277755260310073</v>
+        <v>1.3552585844443</v>
       </c>
       <c r="D12">
-        <v>0.1177905134888562</v>
+        <v>0.1362079410101131</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.022680211822419</v>
+        <v>0.850090578856836</v>
       </c>
       <c r="G12">
-        <v>0.7423044256232316</v>
+        <v>0.6801998271604361</v>
       </c>
       <c r="H12">
-        <v>0.05816775249281392</v>
+        <v>0.05797839781465086</v>
       </c>
       <c r="I12">
-        <v>0.006689909501345959</v>
+        <v>0.006325451312257258</v>
       </c>
       <c r="J12">
-        <v>0.4744928355571716</v>
+        <v>0.3200750353898059</v>
       </c>
       <c r="K12">
-        <v>0.286058104199121</v>
+        <v>0.2092642488580303</v>
       </c>
       <c r="L12">
-        <v>0.1096960155837152</v>
+        <v>0.1087046148318525</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06386733005725631</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1043545545619331</v>
       </c>
       <c r="O12">
-        <v>1.02366884422954</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.052676911998944</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.246645635939046</v>
+        <v>4.224195199638643</v>
       </c>
       <c r="C13">
-        <v>1.259717910960831</v>
+        <v>1.321945924263673</v>
       </c>
       <c r="D13">
-        <v>0.09346775725177281</v>
+        <v>0.1067593064070564</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8547338082193079</v>
+        <v>0.7168574360209092</v>
       </c>
       <c r="G13">
-        <v>0.6206058664089227</v>
+        <v>0.5753929761659577</v>
       </c>
       <c r="H13">
-        <v>0.1136070923604251</v>
+        <v>0.1134729553112237</v>
       </c>
       <c r="I13">
-        <v>0.006191336784138635</v>
+        <v>0.005918833327192452</v>
       </c>
       <c r="J13">
-        <v>0.4128072083584726</v>
+        <v>0.2892405186185627</v>
       </c>
       <c r="K13">
-        <v>0.2379111371492471</v>
+        <v>0.1803612028620165</v>
       </c>
       <c r="L13">
-        <v>0.1008219373437047</v>
+        <v>0.09947666665756927</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05105760686653404</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.09740405701524324</v>
       </c>
       <c r="O13">
-        <v>0.9080972254527921</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.9316854229841383</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.22452802842605</v>
+        <v>4.205481094271533</v>
       </c>
       <c r="C14">
-        <v>1.231064396123941</v>
+        <v>1.284159582434654</v>
       </c>
       <c r="D14">
-        <v>0.07811675842157229</v>
+        <v>0.08752480738228741</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7398434196845258</v>
+        <v>0.6310925381706269</v>
       </c>
       <c r="G14">
-        <v>0.5354224605939493</v>
+        <v>0.4948545401615689</v>
       </c>
       <c r="H14">
-        <v>0.16272600812961</v>
+        <v>0.1626390724965603</v>
       </c>
       <c r="I14">
-        <v>0.005601739085729029</v>
+        <v>0.005471856880762793</v>
       </c>
       <c r="J14">
-        <v>0.3706025836664111</v>
+        <v>0.2798384700750915</v>
       </c>
       <c r="K14">
-        <v>0.208737578981637</v>
+        <v>0.1652269346077446</v>
       </c>
       <c r="L14">
-        <v>0.1113509327011926</v>
+        <v>0.09504220651347239</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04349066202759388</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1092095400223059</v>
       </c>
       <c r="O14">
-        <v>0.8186821614160777</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.8382515963438664</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.191345874278625</v>
+        <v>4.173611769364697</v>
       </c>
       <c r="C15">
-        <v>1.21745159006656</v>
+        <v>1.268899958517466</v>
       </c>
       <c r="D15">
-        <v>0.07447662998674787</v>
+        <v>0.0827618102298544</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7099097061090305</v>
+        <v>0.6108214144464341</v>
       </c>
       <c r="G15">
-        <v>0.5123021928406075</v>
+        <v>0.4705083564840038</v>
       </c>
       <c r="H15">
-        <v>0.1751491041480335</v>
+        <v>0.1750804165111504</v>
       </c>
       <c r="I15">
-        <v>0.005409526948644938</v>
+        <v>0.005366418433314202</v>
       </c>
       <c r="J15">
-        <v>0.3596449575571512</v>
+        <v>0.2819841579342253</v>
       </c>
       <c r="K15">
-        <v>0.2021789204142515</v>
+        <v>0.1627473893817353</v>
       </c>
       <c r="L15">
-        <v>0.115771432165122</v>
+        <v>0.09447942864171743</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04184728253432368</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1139887166039522</v>
       </c>
       <c r="O15">
-        <v>0.7924479357080614</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.8108656464920401</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.925837243755552</v>
+        <v>3.912226561246143</v>
       </c>
       <c r="C16">
-        <v>1.142644206623743</v>
+        <v>1.198770499911689</v>
       </c>
       <c r="D16">
-        <v>0.07212957711163881</v>
+        <v>0.07837821864400496</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6951897906787892</v>
+        <v>0.6190195946968871</v>
       </c>
       <c r="G16">
-        <v>0.4963333316040774</v>
+        <v>0.4351871305616442</v>
       </c>
       <c r="H16">
-        <v>0.1620827599465855</v>
+        <v>0.1620750895149285</v>
       </c>
       <c r="I16">
-        <v>0.004176684796857622</v>
+        <v>0.004408098914326253</v>
       </c>
       <c r="J16">
-        <v>0.357009166458468</v>
+        <v>0.3256928349802308</v>
       </c>
       <c r="K16">
-        <v>0.2084517245637016</v>
+        <v>0.1751634738697518</v>
       </c>
       <c r="L16">
-        <v>0.1107714337450325</v>
+        <v>0.09997417969480971</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0439874822207198</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1097365389262279</v>
       </c>
       <c r="O16">
-        <v>0.7463578759206086</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7631948708676646</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.734694303152537</v>
+        <v>3.722264446585712</v>
       </c>
       <c r="C17">
-        <v>1.100794044569284</v>
+        <v>1.163633315399068</v>
       </c>
       <c r="D17">
-        <v>0.07808355741864403</v>
+        <v>0.08461760224055581</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7432180973508409</v>
+        <v>0.6689171604095492</v>
       </c>
       <c r="G17">
-        <v>0.5282332792673259</v>
+        <v>0.4520607578856612</v>
       </c>
       <c r="H17">
-        <v>0.1241903784144824</v>
+        <v>0.1241976307245807</v>
       </c>
       <c r="I17">
-        <v>0.003619047774375161</v>
+        <v>0.003965024096365788</v>
       </c>
       <c r="J17">
-        <v>0.3769506678817578</v>
+        <v>0.3626530465868569</v>
       </c>
       <c r="K17">
-        <v>0.2281151361850213</v>
+        <v>0.1927115295531863</v>
       </c>
       <c r="L17">
-        <v>0.09855287166406512</v>
+        <v>0.1070400304896406</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04923934316067147</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.09748782153337032</v>
       </c>
       <c r="O17">
-        <v>0.7576952227019902</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7753985585693783</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.587188534058157</v>
+        <v>3.573796024803357</v>
       </c>
       <c r="C18">
-        <v>1.079288623612968</v>
+        <v>1.15378775342873</v>
       </c>
       <c r="D18">
-        <v>0.09349461961943462</v>
+        <v>0.1020379316259792</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8597638342418747</v>
+        <v>0.771850470997272</v>
       </c>
       <c r="G18">
-        <v>0.611790981554023</v>
+        <v>0.5152999879762064</v>
       </c>
       <c r="H18">
-        <v>0.07134445377021592</v>
+        <v>0.07135129852260746</v>
       </c>
       <c r="I18">
-        <v>0.003200900499107817</v>
+        <v>0.003533492719332898</v>
       </c>
       <c r="J18">
-        <v>0.4219100090935513</v>
+        <v>0.4083882045125762</v>
       </c>
       <c r="K18">
-        <v>0.2661290120275055</v>
+        <v>0.2211326843185191</v>
       </c>
       <c r="L18">
-        <v>0.0938903106984868</v>
+        <v>0.1179821980298463</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05926943755160607</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.09199331771397423</v>
       </c>
       <c r="O18">
-        <v>0.8206878411714342</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8416371047584335</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.485530764183693</v>
+        <v>3.469755495622735</v>
       </c>
       <c r="C19">
-        <v>1.082163918374079</v>
+        <v>1.172080789310144</v>
       </c>
       <c r="D19">
-        <v>0.118976363593184</v>
+        <v>0.1310318234097565</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.026922909950542</v>
+        <v>0.9140522841996841</v>
       </c>
       <c r="G19">
-        <v>0.7311954781710455</v>
+        <v>0.6088288867314162</v>
       </c>
       <c r="H19">
-        <v>0.02616662069250708</v>
+        <v>0.02616188719557044</v>
       </c>
       <c r="I19">
-        <v>0.003408182970108697</v>
+        <v>0.003750860720864502</v>
       </c>
       <c r="J19">
-        <v>0.4835610469824587</v>
+        <v>0.4606267990940722</v>
       </c>
       <c r="K19">
-        <v>0.3179065500523883</v>
+        <v>0.2574855978592936</v>
       </c>
       <c r="L19">
-        <v>0.1181167579732119</v>
+        <v>0.1316194978460885</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.07293061842787552</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1145086758176248</v>
       </c>
       <c r="O19">
-        <v>0.9255962514426415</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9516071072654526</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.516505904520841</v>
+        <v>3.494193539956939</v>
       </c>
       <c r="C20">
-        <v>1.141859837128891</v>
+        <v>1.258504924743534</v>
       </c>
       <c r="D20">
-        <v>0.1706069715599199</v>
+        <v>0.1909437787423229</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.342183451410079</v>
+        <v>1.169027363414614</v>
       </c>
       <c r="G20">
-        <v>0.9589647464436553</v>
+        <v>0.7952721153264264</v>
       </c>
       <c r="H20">
-        <v>0.0006732031323331</v>
+        <v>0.0005798641506760127</v>
       </c>
       <c r="I20">
-        <v>0.004556972631746703</v>
+        <v>0.00473576749416349</v>
       </c>
       <c r="J20">
-        <v>0.5959089917836735</v>
+        <v>0.529518175071658</v>
       </c>
       <c r="K20">
-        <v>0.4116129359641718</v>
+        <v>0.3169087410645339</v>
       </c>
       <c r="L20">
-        <v>0.2187432672447258</v>
+        <v>0.1517259481577042</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0984928820029225</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2108065903077758</v>
       </c>
       <c r="O20">
-        <v>1.143214916793752</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.17947097578832</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.951083386031996</v>
+        <v>3.919155284896931</v>
       </c>
       <c r="C21">
-        <v>1.286910170672911</v>
+        <v>1.402026784636632</v>
       </c>
       <c r="D21">
-        <v>0.1925586008569979</v>
+        <v>0.2244464891350333</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.479967478107952</v>
+        <v>1.222268472777202</v>
       </c>
       <c r="G21">
-        <v>1.066852484761696</v>
+        <v>0.9456356727588542</v>
       </c>
       <c r="H21">
-        <v>0.002113810691683593</v>
+        <v>0.001744690260393034</v>
       </c>
       <c r="I21">
-        <v>0.007487290288610282</v>
+        <v>0.007036401801556735</v>
       </c>
       <c r="J21">
-        <v>0.6402666920596118</v>
+        <v>0.4246359584566335</v>
       </c>
       <c r="K21">
-        <v>0.4328010633388217</v>
+        <v>0.3038275768674659</v>
       </c>
       <c r="L21">
-        <v>0.2508354639704038</v>
+        <v>0.1411630973732372</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1023890360515729</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.239380218029396</v>
       </c>
       <c r="O21">
-        <v>1.301540497374603</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.344251512354518</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.241458170471731</v>
+        <v>4.202861198918413</v>
       </c>
       <c r="C22">
-        <v>1.377510145073643</v>
+        <v>1.488757548603076</v>
       </c>
       <c r="D22">
-        <v>0.2039065130239379</v>
+        <v>0.2438611341018913</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.562510069068736</v>
+        <v>1.246856754330565</v>
       </c>
       <c r="G22">
-        <v>1.133950959263501</v>
+        <v>1.049479088160069</v>
       </c>
       <c r="H22">
-        <v>0.003553841368036825</v>
+        <v>0.002920331854131319</v>
       </c>
       <c r="I22">
-        <v>0.009596749135150517</v>
+        <v>0.008515277342203476</v>
       </c>
       <c r="J22">
-        <v>0.6675999650496465</v>
+        <v>0.3575103106443862</v>
       </c>
       <c r="K22">
-        <v>0.4456983137846251</v>
+        <v>0.293729711206236</v>
       </c>
       <c r="L22">
-        <v>0.265830804428262</v>
+        <v>0.1339659878598809</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1045331136356751</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2521887717426381</v>
       </c>
       <c r="O22">
-        <v>1.395484520631896</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.442026396359665</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.087213826801417</v>
+        <v>4.052309236485087</v>
       </c>
       <c r="C23">
-        <v>1.325018157112538</v>
+        <v>1.441310983273354</v>
       </c>
       <c r="D23">
-        <v>0.1972440952176271</v>
+        <v>0.2318784994218674</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.523698391556536</v>
+        <v>1.244115879503781</v>
       </c>
       <c r="G23">
-        <v>1.103307531473945</v>
+        <v>0.9900179136987362</v>
       </c>
       <c r="H23">
-        <v>0.002746488976467454</v>
+        <v>0.002268151319205991</v>
       </c>
       <c r="I23">
-        <v>0.008163621796960285</v>
+        <v>0.007381486637714652</v>
       </c>
       <c r="J23">
-        <v>0.6556373498081314</v>
+        <v>0.4070482072956452</v>
       </c>
       <c r="K23">
-        <v>0.4418340562119525</v>
+        <v>0.3033858311113775</v>
       </c>
       <c r="L23">
-        <v>0.2580499719246632</v>
+        <v>0.1392043144960304</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1051676387250744</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2456358940387062</v>
       </c>
       <c r="O23">
-        <v>1.34415853327549</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.38871492106388</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.503261338721416</v>
+        <v>3.48065818632756</v>
       </c>
       <c r="C24">
-        <v>1.134604479561574</v>
+        <v>1.253005383380128</v>
       </c>
       <c r="D24">
-        <v>0.1732140024746656</v>
+        <v>0.1940066978728794</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.37096283696313</v>
+        <v>1.19366001769697</v>
       </c>
       <c r="G24">
-        <v>0.9815565458760034</v>
+        <v>0.8129202867169028</v>
       </c>
       <c r="H24">
-        <v>0.0006032159178983587</v>
+        <v>0.0005049452748360217</v>
       </c>
       <c r="I24">
-        <v>0.004120644802304341</v>
+        <v>0.004196113875140739</v>
       </c>
       <c r="J24">
-        <v>0.607510398508893</v>
+        <v>0.5399480280560027</v>
       </c>
       <c r="K24">
-        <v>0.4234780004047138</v>
+        <v>0.3256082260059685</v>
       </c>
       <c r="L24">
-        <v>0.2284184249159367</v>
+        <v>0.1549687381159686</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.101775288400443</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2201744675842008</v>
       </c>
       <c r="O24">
-        <v>1.152600812733724</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.189555220326753</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.875651022216971</v>
+        <v>2.86289710445709</v>
       </c>
       <c r="C25">
-        <v>0.9321744274292314</v>
+        <v>1.022266739080038</v>
       </c>
       <c r="D25">
-        <v>0.1476727269686791</v>
+        <v>0.1641317035165173</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.211933235505924</v>
+        <v>1.076013434031751</v>
       </c>
       <c r="G25">
-        <v>0.8557801484814576</v>
+        <v>0.7145323867855211</v>
       </c>
       <c r="H25">
-        <v>4.309365519561403E-05</v>
+        <v>4.379483508443194E-05</v>
       </c>
       <c r="I25">
-        <v>0.001611507941339241</v>
+        <v>0.001977760315988952</v>
       </c>
       <c r="J25">
-        <v>0.5586242680508207</v>
+        <v>0.5191641587991995</v>
       </c>
       <c r="K25">
-        <v>0.4062071571985797</v>
+        <v>0.3268257377668995</v>
       </c>
       <c r="L25">
-        <v>0.1967704241354014</v>
+        <v>0.1641931755424295</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0907485199258069</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1918159311193506</v>
       </c>
       <c r="O25">
-        <v>0.947556305511192</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.9764566267593224</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
